--- a/Textbook Companion/Chapter43/Practice Files/Groceriespt.xlsx
+++ b/Textbook Companion/Chapter43/Practice Files/Groceriespt.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" showPivotChartFilter="1" defaultThemeVersion="123820"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <workbookPr showPivotChartFilter="1" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\winston\Documents\Chapter43pivottables\Companion Content\Practice Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\Textbook Companion\Chapter43\Practice Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="15120" windowHeight="8265" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Groups collapsed" sheetId="32" r:id="rId1"/>
@@ -80,13 +80,14 @@
     <definedName name="RiskUseMultipleCPUs" hidden="1">TRUE</definedName>
     <definedName name="Slicer_Month">#N/A</definedName>
     <definedName name="Slicer_Month1">#N/A</definedName>
+    <definedName name="Slicer_Month2">#N/A</definedName>
     <definedName name="Slicer_Product">#N/A</definedName>
     <definedName name="Slicer_Product1">#N/A</definedName>
     <definedName name="store">Data!$L$6:$M$9</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId19"/>
+    <pivotCache cacheId="28" r:id="rId19"/>
   </pivotCaches>
   <webPublishing codePage="1252"/>
   <extLst>
@@ -96,6 +97,7 @@
         <x14:slicerCache r:id="rId21"/>
         <x14:slicerCache r:id="rId22"/>
         <x14:slicerCache r:id="rId23"/>
+        <x14:slicerCache r:id="rId24"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -106,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6023" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6106" uniqueCount="76">
   <si>
     <t>Year</t>
   </si>
@@ -332,13 +334,17 @@
   <si>
     <t>Tabular form</t>
   </si>
+  <si>
+    <t>Count of Units</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -385,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -412,12 +418,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -808,13 +819,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>62974</c:v>
+                  <c:v>31720</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54117</c:v>
+                  <c:v>26514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56981</c:v>
+                  <c:v>30069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,13 +875,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>56518</c:v>
+                  <c:v>33672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56222</c:v>
+                  <c:v>28947</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55693</c:v>
+                  <c:v>22336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,13 +931,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>60047</c:v>
+                  <c:v>27909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53910</c:v>
+                  <c:v>26238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61816</c:v>
+                  <c:v>34762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,13 +987,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>63689</c:v>
+                  <c:v>33308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52489</c:v>
+                  <c:v>26303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58671</c:v>
+                  <c:v>28091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1062,22 +1073,28 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Month"/>
+            <xdr:cNvPr id="2" name="Month">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -1091,7 +1108,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1101,8 +1118,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3876675" y="1190625"/>
-              <a:ext cx="1828800" cy="2524125"/>
+              <a:off x="4371975" y="4133850"/>
+              <a:ext cx="4572000" cy="1457325"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1122,7 +1139,7 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers can be used in at least Excel 2010.
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
 If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
               </a:r>
             </a:p>
@@ -1145,11 +1162,17 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Product"/>
+            <xdr:cNvPr id="3" name="Product">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -1163,7 +1186,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1194,7 +1217,7 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers can be used in at least Excel 2010.
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
 If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
               </a:r>
             </a:p>
@@ -1226,7 +1249,13 @@
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Month 1"/>
+            <xdr:cNvPr id="2" name="Month 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -1298,7 +1327,13 @@
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Product 1"/>
+            <xdr:cNvPr id="3" name="Product 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -1373,7 +1408,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1396,19 +1437,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1426,8 +1473,91 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Month 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297CF42F-5BBD-459B-8EDF-F563066F102E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Month 2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11210925" y="409575"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="IBM T42" refreshedDate="39096.99973599537" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="922">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="HsMatheus" refreshedDate="43143.62967858796" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="922" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C2:I924" sheet="Data"/>
   </cacheSource>
@@ -1505,7 +1635,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="922">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="922">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -9808,7 +9938,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable4" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C227" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -10572,11 +10702,16 @@
     <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:C210" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -11304,11 +11439,16 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:C210" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -12036,11 +12176,16 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0B00-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A4:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -12221,11 +12366,16 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0C00-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A4:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0" sortType="descending">
@@ -12476,11 +12626,16 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0D00-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A4:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -12499,12 +12654,12 @@
         <item x="9"/>
         <item x="6"/>
         <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="11"/>
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12779,11 +12934,16 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0E00-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:C21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -12944,11 +13104,16 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0F00-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:I81" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0" sortType="descending">
@@ -13307,11 +13472,16 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-1000-000000000000}" name="PivotTable4" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -13454,11 +13624,478 @@
     <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A800BC00-1889-41F2-960F-BE3E47D79C11}" name="PivotTable2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K23:Q94" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisCol" showAll="0" insertBlankRow="1" sortType="descending">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0" insertBlankRow="1">
+      <items count="13">
+        <item x="2"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" insertBlankRow="1">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" insertBlankRow="1">
+      <items count="5">
+        <item h="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" insertBlankRow="1" sortType="descending">
+      <items count="15">
+        <item x="12"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" insertBlankRow="1"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0" insertBlankRow="1"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="3"/>
+    <field x="4"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="69">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="blank" r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="blank" r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="blank" r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="blank" r="1">
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="blank" r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="blank" r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="blank" r="1">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="blank" r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="blank" r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="blank" r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="blank" r="1">
+      <x v="8"/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="-2"/>
+    <field x="0"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="1">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Count of Units" fld="5" subtotal="count" baseField="3" baseItem="0" numFmtId="3"/>
+    <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 InsertBlankRowDefault="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C1E2EF51-DB10-412A-B6B2-CBB2D272A123}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="K3:O19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="2"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="4"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:I81" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0" sortType="ascending">
@@ -13798,7 +14435,7 @@
     <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="4">
       <pivotArea field="0" dataOnly="0" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -13828,11 +14465,16 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:C228" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -14596,7 +15238,7 @@
     <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="5">
-    <conditionalFormat scope="field" priority="1">
+    <conditionalFormat scope="field" priority="2">
       <pivotAreas count="1">
         <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -14608,7 +15250,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="2">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="4">
@@ -14628,7 +15270,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat scope="field" priority="3">
+    <conditionalFormat scope="field" priority="4">
       <pivotAreas count="1">
         <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -14640,7 +15282,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="5">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="4">
@@ -14660,7 +15302,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat scope="field" priority="5">
+    <conditionalFormat scope="field" priority="6">
       <pivotAreas count="1">
         <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -14692,11 +15334,16 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:C284" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" insertBlankRow="1" sortType="descending" defaultSubtotal="0">
@@ -15641,11 +16288,16 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:C228" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -16409,7 +17061,7 @@
     <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="3">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -16438,11 +17090,16 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:C155" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
@@ -17019,11 +17676,16 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:C81" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
@@ -17378,11 +18040,16 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:F228" firstHeaderRow="1" firstDataRow="2" firstDataCol="4" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" showAll="0" sortType="descending">
@@ -18146,7 +18813,7 @@
     <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -18169,11 +18836,16 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:F228" firstHeaderRow="1" firstDataRow="2" firstDataCol="4" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
@@ -18994,7 +19666,7 @@
     <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -19017,11 +19689,16 @@
       </autoFilter>
     </filter>
   </filters>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Month" sourceName="Month">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Month" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="Month">
   <pivotTables>
     <pivotTable tabId="16" name="PivotTable1"/>
   </pivotTables>
@@ -19047,7 +19724,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Product" sourceName="Product">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Product" xr10:uid="{00000000-0013-0000-FFFF-FFFF02000000}" sourceName="Product">
   <pivotTables>
     <pivotTable tabId="16" name="PivotTable1"/>
   </pivotTables>
@@ -19075,7 +19752,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Month1" sourceName="Month">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Month1" xr10:uid="{00000000-0013-0000-FFFF-FFFF03000000}" sourceName="Month">
   <pivotTables>
     <pivotTable tabId="37" name="PivotTable1"/>
   </pivotTables>
@@ -19101,7 +19778,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Product1" sourceName="Product">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Product1" xr10:uid="{00000000-0013-0000-FFFF-FFFF04000000}" sourceName="Product">
   <pivotTables>
     <pivotTable tabId="37" name="PivotTable1"/>
   </pivotTables>
@@ -19128,17 +19805,49 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Month2" xr10:uid="{431CCE95-E45A-46E1-AEE1-DE172D9604C1}" sourceName="Month">
+  <pivotTables>
+    <pivotTable tabId="1" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="12">
+        <i x="2" s="1"/>
+        <i x="10" s="1"/>
+        <i x="1" s="1"/>
+        <i x="9" s="1"/>
+        <i x="6" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5"/>
+        <i x="0"/>
+        <i x="3"/>
+        <i x="7"/>
+        <i x="8"/>
+        <i x="11"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Month" cache="Slicer_Month" caption="Month" rowHeight="241300"/>
-  <slicer name="Product" cache="Slicer_Product" caption="Product" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Month" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_Month" caption="Month" columnCount="3" style="SlicerStyleOther2" rowHeight="241300"/>
+  <slicer name="Product" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="Slicer_Product" caption="Product" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Month 1" cache="Slicer_Month1" caption="Month" rowHeight="241300"/>
-  <slicer name="Product 1" cache="Slicer_Product1" caption="Product" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Month 1" xr10:uid="{00000000-0014-0000-FFFF-FFFF03000000}" cache="Slicer_Month1" caption="Month" rowHeight="241300"/>
+  <slicer name="Product 1" xr10:uid="{00000000-0014-0000-FFFF-FFFF04000000}" cache="Slicer_Product1" caption="Product" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Month 2" xr10:uid="{D2B2AAD7-2496-471F-AA5B-D39C8AB797CD}" cache="Slicer_Month2" caption="Month" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -19218,6 +19927,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -19253,6 +19979,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -19425,7 +20168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21922,12 +22665,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:J210"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="15015" topLeftCell="K1"/>
-      <selection activeCell="B12" sqref="B12"/>
+      <pane xSplit="25425" topLeftCell="C1"/>
+      <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -24240,7 +24983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:J210"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -24251,9 +24994,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
@@ -26558,7 +27301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A2:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26657,7 +27400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A2:J10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -26667,7 +27410,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
@@ -26807,20 +27550,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A2:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -26832,7 +27575,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -26874,19 +27617,19 @@
         <v>2005</v>
       </c>
       <c r="B6" s="5">
-        <v>62974</v>
+        <v>31720</v>
       </c>
       <c r="C6" s="5">
-        <v>56518</v>
+        <v>33672</v>
       </c>
       <c r="D6" s="5">
-        <v>60047</v>
+        <v>27909</v>
       </c>
       <c r="E6" s="5">
-        <v>63689</v>
+        <v>33308</v>
       </c>
       <c r="F6" s="5">
-        <v>243228</v>
+        <v>126609</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -26894,19 +27637,19 @@
         <v>2006</v>
       </c>
       <c r="B7" s="5">
-        <v>54117</v>
+        <v>26514</v>
       </c>
       <c r="C7" s="5">
-        <v>56222</v>
+        <v>28947</v>
       </c>
       <c r="D7" s="5">
-        <v>53910</v>
+        <v>26238</v>
       </c>
       <c r="E7" s="5">
-        <v>52489</v>
+        <v>26303</v>
       </c>
       <c r="F7" s="5">
-        <v>216738</v>
+        <v>108002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -26914,19 +27657,19 @@
         <v>2007</v>
       </c>
       <c r="B8" s="5">
-        <v>56981</v>
+        <v>30069</v>
       </c>
       <c r="C8" s="5">
-        <v>55693</v>
+        <v>22336</v>
       </c>
       <c r="D8" s="5">
-        <v>61816</v>
+        <v>34762</v>
       </c>
       <c r="E8" s="5">
-        <v>58671</v>
+        <v>28091</v>
       </c>
       <c r="F8" s="5">
-        <v>233161</v>
+        <v>115258</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -26934,19 +27677,19 @@
         <v>42</v>
       </c>
       <c r="B9" s="5">
-        <v>174072</v>
+        <v>88303</v>
       </c>
       <c r="C9" s="5">
-        <v>168433</v>
+        <v>84955</v>
       </c>
       <c r="D9" s="5">
-        <v>175773</v>
+        <v>88909</v>
       </c>
       <c r="E9" s="5">
-        <v>174849</v>
+        <v>87702</v>
       </c>
       <c r="F9" s="5">
-        <v>693127</v>
+        <v>349869</v>
       </c>
     </row>
   </sheetData>
@@ -26956,7 +27699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27188,7 +27931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A2:I81"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -29430,11 +30173,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29650,11 +30393,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:I924"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="C2:Q924"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="B116" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29662,10 +30405,16 @@
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -29688,7 +30437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>2007</v>
       </c>
@@ -29710,8 +30459,14 @@
       <c r="I3" s="1">
         <v>3187.8</v>
       </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2007</v>
       </c>
@@ -29733,8 +30488,23 @@
       <c r="I4" s="1">
         <v>3412.48</v>
       </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4">
+        <v>2005</v>
+      </c>
+      <c r="M4">
+        <v>2006</v>
+      </c>
+      <c r="N4">
+        <v>2007</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2007</v>
       </c>
@@ -29756,8 +30526,23 @@
       <c r="I5" s="1">
         <v>1808.48</v>
       </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="14">
+        <v>20421.919999999998</v>
+      </c>
+      <c r="M5" s="14">
+        <v>15754.659999999998</v>
+      </c>
+      <c r="N5" s="14">
+        <v>17420.170000000002</v>
+      </c>
+      <c r="O5" s="14">
+        <v>53596.75</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2006</v>
       </c>
@@ -29779,8 +30564,23 @@
       <c r="I6" s="1">
         <v>2260</v>
       </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="14">
+        <v>19920.310000000001</v>
+      </c>
+      <c r="M6" s="14">
+        <v>19370.79</v>
+      </c>
+      <c r="N6" s="14">
+        <v>8729.4599999999991</v>
+      </c>
+      <c r="O6" s="14">
+        <v>48020.560000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2006</v>
       </c>
@@ -29802,8 +30602,23 @@
       <c r="I7" s="1">
         <v>2076.87</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="14">
+        <v>40264.020000000004</v>
+      </c>
+      <c r="M7" s="14">
+        <v>33626.01</v>
+      </c>
+      <c r="N7" s="14">
+        <v>36341.78</v>
+      </c>
+      <c r="O7" s="14">
+        <v>110231.81</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2005</v>
       </c>
@@ -29825,8 +30640,23 @@
       <c r="I8" s="1">
         <v>1707.09</v>
       </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="14">
+        <v>14161.310000000001</v>
+      </c>
+      <c r="M8" s="14">
+        <v>17528.62</v>
+      </c>
+      <c r="N8" s="14">
+        <v>18835.600000000002</v>
+      </c>
+      <c r="O8" s="14">
+        <v>50525.53</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2006</v>
       </c>
@@ -29848,8 +30678,23 @@
       <c r="I9" s="1">
         <v>2181.7600000000002</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="14">
+        <v>16152.76</v>
+      </c>
+      <c r="M9" s="14">
+        <v>18703.27</v>
+      </c>
+      <c r="N9" s="14">
+        <v>30021.54</v>
+      </c>
+      <c r="O9" s="14">
+        <v>64877.57</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>2007</v>
       </c>
@@ -29871,8 +30716,23 @@
       <c r="I10" s="1">
         <v>1894.2</v>
       </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="14">
+        <v>37376.850000000006</v>
+      </c>
+      <c r="M10" s="14">
+        <v>8323.2000000000007</v>
+      </c>
+      <c r="N10" s="14">
+        <v>14077.99</v>
+      </c>
+      <c r="O10" s="14">
+        <v>59778.04</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>2007</v>
       </c>
@@ -29894,8 +30754,23 @@
       <c r="I11" s="1">
         <v>1856.4</v>
       </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="14">
+        <v>45134.74</v>
+      </c>
+      <c r="M11" s="14">
+        <v>29629.620000000003</v>
+      </c>
+      <c r="N11" s="14">
+        <v>32766.720000000005</v>
+      </c>
+      <c r="O11" s="14">
+        <v>107531.08</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>2006</v>
       </c>
@@ -29917,8 +30792,23 @@
       <c r="I12" s="1">
         <v>1553.63</v>
       </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="14">
+        <v>33645.629999999997</v>
+      </c>
+      <c r="M12" s="14">
+        <v>10824.490000000002</v>
+      </c>
+      <c r="N12" s="14">
+        <v>25311.08</v>
+      </c>
+      <c r="O12" s="14">
+        <v>69781.2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>2005</v>
       </c>
@@ -29940,8 +30830,23 @@
       <c r="I13" s="1">
         <v>2064.48</v>
       </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="14">
+        <v>29872.400000000001</v>
+      </c>
+      <c r="M13" s="14">
+        <v>34632.03</v>
+      </c>
+      <c r="N13" s="14">
+        <v>27341.25</v>
+      </c>
+      <c r="O13" s="14">
+        <v>91845.68</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>2006</v>
       </c>
@@ -29963,8 +30868,23 @@
       <c r="I14" s="1">
         <v>1809.64</v>
       </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="14">
+        <v>13135.119999999999</v>
+      </c>
+      <c r="M14" s="14">
+        <v>33635.380000000005</v>
+      </c>
+      <c r="N14" s="14">
+        <v>32908.699999999997</v>
+      </c>
+      <c r="O14" s="14">
+        <v>79679.199999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>2005</v>
       </c>
@@ -29986,8 +30906,23 @@
       <c r="I15" s="1">
         <v>2196.41</v>
       </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="14">
+        <v>57285.80000000001</v>
+      </c>
+      <c r="M15" s="14">
+        <v>32710.13</v>
+      </c>
+      <c r="N15" s="14">
+        <v>37107.689999999995</v>
+      </c>
+      <c r="O15" s="14">
+        <v>127103.62</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>2007</v>
       </c>
@@ -30009,8 +30944,23 @@
       <c r="I16" s="1">
         <v>1932.84</v>
       </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="14">
+        <v>14158.02</v>
+      </c>
+      <c r="M16" s="14">
+        <v>18953.28</v>
+      </c>
+      <c r="N16" s="14">
+        <v>30450.569999999996</v>
+      </c>
+      <c r="O16" s="14">
+        <v>63561.869999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>2007</v>
       </c>
@@ -30032,8 +30982,23 @@
       <c r="I17" s="1">
         <v>1987.68</v>
       </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="14">
+        <v>29148.369999999995</v>
+      </c>
+      <c r="M17" s="14">
+        <v>22249</v>
+      </c>
+      <c r="N17" s="14">
+        <v>26359.62</v>
+      </c>
+      <c r="O17" s="14">
+        <v>77756.989999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>2005</v>
       </c>
@@ -30055,8 +31020,23 @@
       <c r="I18" s="1">
         <v>2217.12</v>
       </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="14">
+        <v>9563.3299999999981</v>
+      </c>
+      <c r="M18" s="14">
+        <v>25877.73</v>
+      </c>
+      <c r="N18" s="14">
+        <v>17352.87</v>
+      </c>
+      <c r="O18" s="14">
+        <v>52793.929999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>2007</v>
       </c>
@@ -30078,8 +31058,23 @@
       <c r="I19" s="1">
         <v>2189.88</v>
       </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="14">
+        <v>380240.58</v>
+      </c>
+      <c r="M19" s="14">
+        <v>321818.20999999996</v>
+      </c>
+      <c r="N19" s="14">
+        <v>355025.04000000004</v>
+      </c>
+      <c r="O19" s="14">
+        <v>1057083.8299999998</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>2006</v>
       </c>
@@ -30102,7 +31097,7 @@
         <v>1895.04</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>2005</v>
       </c>
@@ -30124,8 +31119,14 @@
       <c r="I21" s="1">
         <v>3274.94</v>
       </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>2005</v>
       </c>
@@ -30148,7 +31149,7 @@
         <v>3281.76</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>2007</v>
       </c>
@@ -30170,8 +31171,11 @@
       <c r="I23" s="1">
         <v>1247.1600000000001</v>
       </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>2005</v>
       </c>
@@ -30193,8 +31197,14 @@
       <c r="I24" s="1">
         <v>1513.92</v>
       </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>2007</v>
       </c>
@@ -30216,8 +31226,29 @@
       <c r="I25" s="1">
         <v>2716.56</v>
       </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25">
+        <v>2007</v>
+      </c>
+      <c r="M25">
+        <v>2006</v>
+      </c>
+      <c r="N25">
+        <v>2005</v>
+      </c>
+      <c r="O25">
+        <v>2007</v>
+      </c>
+      <c r="P25">
+        <v>2006</v>
+      </c>
+      <c r="Q25">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>2007</v>
       </c>
@@ -30239,8 +31270,29 @@
       <c r="I26" s="1">
         <v>2408.6999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="15">
+        <v>82</v>
+      </c>
+      <c r="M26" s="15">
+        <v>72</v>
+      </c>
+      <c r="N26" s="15">
+        <v>79</v>
+      </c>
+      <c r="O26" s="14">
+        <v>189616.27000000008</v>
+      </c>
+      <c r="P26" s="14">
+        <v>157192.37000000002</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>182813.87999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>2005</v>
       </c>
@@ -30262,8 +31314,29 @@
       <c r="I27" s="1">
         <v>2594.5500000000002</v>
       </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="15">
+        <v>22</v>
+      </c>
+      <c r="M27" s="15">
+        <v>24</v>
+      </c>
+      <c r="N27" s="15">
+        <v>19</v>
+      </c>
+      <c r="O27" s="14">
+        <v>50214.03</v>
+      </c>
+      <c r="P27" s="14">
+        <v>57302.380000000026</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>42517.599999999991</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>2007</v>
       </c>
@@ -30285,8 +31358,29 @@
       <c r="I28" s="1">
         <v>1542.89</v>
       </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="15">
+        <v>6</v>
+      </c>
+      <c r="M28" s="15">
+        <v>6</v>
+      </c>
+      <c r="N28" s="15">
+        <v>3</v>
+      </c>
+      <c r="O28" s="14">
+        <v>16540.36</v>
+      </c>
+      <c r="P28" s="14">
+        <v>13450.890000000001</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>7497.52</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>2007</v>
       </c>
@@ -30308,8 +31402,29 @@
       <c r="I29" s="1">
         <v>2456.9</v>
       </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="15">
+        <v>5</v>
+      </c>
+      <c r="M29" s="15">
+        <v>5</v>
+      </c>
+      <c r="N29" s="15">
+        <v>2</v>
+      </c>
+      <c r="O29" s="14">
+        <v>9951.75</v>
+      </c>
+      <c r="P29" s="14">
+        <v>11362.89</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>5055.55</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>2007</v>
       </c>
@@ -30331,8 +31446,29 @@
       <c r="I30" s="1">
         <v>2664.5</v>
       </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="15">
+        <v>6</v>
+      </c>
+      <c r="M30" s="15">
+        <v>5</v>
+      </c>
+      <c r="N30" s="15">
+        <v>6</v>
+      </c>
+      <c r="O30" s="14">
+        <v>12332.460000000001</v>
+      </c>
+      <c r="P30" s="14">
+        <v>12965.279999999999</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>12284.039999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>2006</v>
       </c>
@@ -30354,8 +31490,29 @@
       <c r="I31" s="1">
         <v>2901.4</v>
       </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="15">
+        <v>5</v>
+      </c>
+      <c r="M31" s="15">
+        <v>8</v>
+      </c>
+      <c r="N31" s="15">
+        <v>8</v>
+      </c>
+      <c r="O31" s="14">
+        <v>11389.46</v>
+      </c>
+      <c r="P31" s="14">
+        <v>19523.320000000003</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>17680.490000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>2005</v>
       </c>
@@ -30377,8 +31534,15 @@
       <c r="I32" s="1">
         <v>2006.52</v>
       </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K32" s="4"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>2006</v>
       </c>
@@ -30400,8 +31564,29 @@
       <c r="I33" s="1">
         <v>1713.04</v>
       </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="15">
+        <v>22</v>
+      </c>
+      <c r="M33" s="15">
+        <v>12</v>
+      </c>
+      <c r="N33" s="15">
+        <v>26</v>
+      </c>
+      <c r="O33" s="14">
+        <v>49400.74</v>
+      </c>
+      <c r="P33" s="14">
+        <v>22496.5</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>60126.150000000009</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>2006</v>
       </c>
@@ -30423,8 +31608,25 @@
       <c r="I34" s="1">
         <v>2319.33</v>
       </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="15">
+        <v>2</v>
+      </c>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15">
+        <v>7</v>
+      </c>
+      <c r="O34" s="14">
+        <v>3427.02</v>
+      </c>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14">
+        <v>13052.68</v>
+      </c>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>2005</v>
       </c>
@@ -30446,8 +31648,29 @@
       <c r="I35" s="1">
         <v>1544.51</v>
       </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="15">
+        <v>2</v>
+      </c>
+      <c r="M35" s="15">
+        <v>2</v>
+      </c>
+      <c r="N35" s="15">
+        <v>6</v>
+      </c>
+      <c r="O35" s="14">
+        <v>5302.96</v>
+      </c>
+      <c r="P35" s="14">
+        <v>3259.68</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>14698.63</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>2006</v>
       </c>
@@ -30469,8 +31692,29 @@
       <c r="I36" s="1">
         <v>2866.46</v>
       </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="15">
+        <v>8</v>
+      </c>
+      <c r="M36" s="15">
+        <v>3</v>
+      </c>
+      <c r="N36" s="15">
+        <v>8</v>
+      </c>
+      <c r="O36" s="14">
+        <v>18910.850000000002</v>
+      </c>
+      <c r="P36" s="14">
+        <v>4427.91</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>20474.649999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>2006</v>
       </c>
@@ -30492,8 +31736,29 @@
       <c r="I37" s="1">
         <v>1395.36</v>
       </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="15">
+        <v>10</v>
+      </c>
+      <c r="M37" s="15">
+        <v>7</v>
+      </c>
+      <c r="N37" s="15">
+        <v>5</v>
+      </c>
+      <c r="O37" s="14">
+        <v>21759.91</v>
+      </c>
+      <c r="P37" s="14">
+        <v>14808.91</v>
+      </c>
+      <c r="Q37" s="14">
+        <v>11900.189999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>2007</v>
       </c>
@@ -30515,8 +31780,15 @@
       <c r="I38" s="1">
         <v>1244.22</v>
       </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K38" s="4"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>2007</v>
       </c>
@@ -30538,8 +31810,29 @@
       <c r="I39" s="1">
         <v>1590.77</v>
       </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="15">
+        <v>20</v>
+      </c>
+      <c r="M39" s="15">
+        <v>20</v>
+      </c>
+      <c r="N39" s="15">
+        <v>14</v>
+      </c>
+      <c r="O39" s="14">
+        <v>49062.460000000006</v>
+      </c>
+      <c r="P39" s="14">
+        <v>42513.75</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>32042.390000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>2007</v>
       </c>
@@ -30561,8 +31854,29 @@
       <c r="I40" s="1">
         <v>1817.2</v>
       </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="15">
+        <v>8</v>
+      </c>
+      <c r="M40" s="15">
+        <v>8</v>
+      </c>
+      <c r="N40" s="15">
+        <v>2</v>
+      </c>
+      <c r="O40" s="14">
+        <v>18548.330000000002</v>
+      </c>
+      <c r="P40" s="14">
+        <v>17321.949999999997</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>4051.2200000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>2006</v>
       </c>
@@ -30584,8 +31898,29 @@
       <c r="I41" s="1">
         <v>1972.48</v>
       </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="15">
+        <v>5</v>
+      </c>
+      <c r="M41" s="15">
+        <v>5</v>
+      </c>
+      <c r="N41" s="15">
+        <v>5</v>
+      </c>
+      <c r="O41" s="14">
+        <v>12865.810000000001</v>
+      </c>
+      <c r="P41" s="14">
+        <v>10116.26</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>11087.14</v>
+      </c>
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>2005</v>
       </c>
@@ -30607,8 +31942,29 @@
       <c r="I42" s="1">
         <v>1967.5</v>
       </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="15">
+        <v>5</v>
+      </c>
+      <c r="M42" s="15">
+        <v>4</v>
+      </c>
+      <c r="N42" s="15">
+        <v>4</v>
+      </c>
+      <c r="O42" s="14">
+        <v>13286.17</v>
+      </c>
+      <c r="P42" s="14">
+        <v>10886.5</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>9092.92</v>
+      </c>
+    </row>
+    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>2005</v>
       </c>
@@ -30630,8 +31986,29 @@
       <c r="I43" s="1">
         <v>2397.63</v>
       </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="15">
+        <v>2</v>
+      </c>
+      <c r="M43" s="15">
+        <v>3</v>
+      </c>
+      <c r="N43" s="15">
+        <v>3</v>
+      </c>
+      <c r="O43" s="14">
+        <v>4362.1499999999996</v>
+      </c>
+      <c r="P43" s="14">
+        <v>4189.04</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>7811.11</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>2005</v>
       </c>
@@ -30653,8 +32030,15 @@
       <c r="I44" s="1">
         <v>1449.57</v>
       </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K44" s="4"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+    </row>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>2007</v>
       </c>
@@ -30676,8 +32060,29 @@
       <c r="I45" s="1">
         <v>1886</v>
       </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" s="15">
+        <v>18</v>
+      </c>
+      <c r="M45" s="15">
+        <v>16</v>
+      </c>
+      <c r="N45" s="15">
+        <v>20</v>
+      </c>
+      <c r="O45" s="14">
+        <v>40939.040000000001</v>
+      </c>
+      <c r="P45" s="14">
+        <v>34879.740000000005</v>
+      </c>
+      <c r="Q45" s="14">
+        <v>48127.74</v>
+      </c>
+    </row>
+    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>2006</v>
       </c>
@@ -30699,8 +32104,29 @@
       <c r="I46" s="1">
         <v>2485.4</v>
       </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="15">
+        <v>6</v>
+      </c>
+      <c r="M46" s="15">
+        <v>2</v>
+      </c>
+      <c r="N46" s="15">
+        <v>2</v>
+      </c>
+      <c r="O46" s="14">
+        <v>15300.97</v>
+      </c>
+      <c r="P46" s="14">
+        <v>4268.13</v>
+      </c>
+      <c r="Q46" s="14">
+        <v>3972.4399999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>2007</v>
       </c>
@@ -30722,8 +32148,29 @@
       <c r="I47" s="1">
         <v>3227.25</v>
       </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="15">
+        <v>3</v>
+      </c>
+      <c r="M47" s="15">
+        <v>3</v>
+      </c>
+      <c r="N47" s="15">
+        <v>5</v>
+      </c>
+      <c r="O47" s="14">
+        <v>5739.3</v>
+      </c>
+      <c r="P47" s="14">
+        <v>5535.45</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>13631.83</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>2007</v>
       </c>
@@ -30745,8 +32192,29 @@
       <c r="I48" s="1">
         <v>1996.26</v>
       </c>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="15">
+        <v>3</v>
+      </c>
+      <c r="M48" s="15">
+        <v>6</v>
+      </c>
+      <c r="N48" s="15">
+        <v>6</v>
+      </c>
+      <c r="O48" s="14">
+        <v>4829.24</v>
+      </c>
+      <c r="P48" s="14">
+        <v>14052.05</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>14763.880000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>2005</v>
       </c>
@@ -30768,8 +32236,29 @@
       <c r="I49" s="1">
         <v>2457</v>
       </c>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="15">
+        <v>6</v>
+      </c>
+      <c r="M49" s="15">
+        <v>5</v>
+      </c>
+      <c r="N49" s="15">
+        <v>7</v>
+      </c>
+      <c r="O49" s="14">
+        <v>15069.53</v>
+      </c>
+      <c r="P49" s="14">
+        <v>11024.109999999999</v>
+      </c>
+      <c r="Q49" s="14">
+        <v>15759.59</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>2005</v>
       </c>
@@ -30791,8 +32280,15 @@
       <c r="I50" s="1">
         <v>1477.06</v>
       </c>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K50" s="4"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>2006</v>
       </c>
@@ -30814,8 +32310,29 @@
       <c r="I51" s="1">
         <v>1963</v>
       </c>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="15">
+        <v>76</v>
+      </c>
+      <c r="M51" s="15">
+        <v>75</v>
+      </c>
+      <c r="N51" s="15">
+        <v>77</v>
+      </c>
+      <c r="O51" s="14">
+        <v>169327.53</v>
+      </c>
+      <c r="P51" s="14">
+        <v>167211.04</v>
+      </c>
+      <c r="Q51" s="14">
+        <v>174378.59000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>2006</v>
       </c>
@@ -30837,8 +32354,29 @@
       <c r="I52" s="1">
         <v>1517.67</v>
       </c>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" s="15">
+        <v>31</v>
+      </c>
+      <c r="M52" s="15">
+        <v>21</v>
+      </c>
+      <c r="N52" s="15">
+        <v>29</v>
+      </c>
+      <c r="O52" s="14">
+        <v>68027.55</v>
+      </c>
+      <c r="P52" s="14">
+        <v>48965.12000000001</v>
+      </c>
+      <c r="Q52" s="14">
+        <v>65475.64999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>2006</v>
       </c>
@@ -30860,8 +32398,29 @@
       <c r="I53" s="1">
         <v>1646.9</v>
       </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="15">
+        <v>4</v>
+      </c>
+      <c r="M53" s="15">
+        <v>6</v>
+      </c>
+      <c r="N53" s="15">
+        <v>5</v>
+      </c>
+      <c r="O53" s="14">
+        <v>8090.4800000000005</v>
+      </c>
+      <c r="P53" s="14">
+        <v>14144.720000000001</v>
+      </c>
+      <c r="Q53" s="14">
+        <v>11993.2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>2007</v>
       </c>
@@ -30883,8 +32442,29 @@
       <c r="I54" s="1">
         <v>1812.04</v>
       </c>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K54" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="15">
+        <v>7</v>
+      </c>
+      <c r="M54" s="15">
+        <v>5</v>
+      </c>
+      <c r="N54" s="15">
+        <v>6</v>
+      </c>
+      <c r="O54" s="14">
+        <v>14952.029999999999</v>
+      </c>
+      <c r="P54" s="14">
+        <v>11668.509999999998</v>
+      </c>
+      <c r="Q54" s="14">
+        <v>13937.8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>2005</v>
       </c>
@@ -30906,8 +32486,29 @@
       <c r="I55" s="1">
         <v>2234.48</v>
       </c>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="15">
+        <v>10</v>
+      </c>
+      <c r="M55" s="15">
+        <v>7</v>
+      </c>
+      <c r="N55" s="15">
+        <v>12</v>
+      </c>
+      <c r="O55" s="14">
+        <v>24448.159999999996</v>
+      </c>
+      <c r="P55" s="14">
+        <v>16563.730000000003</v>
+      </c>
+      <c r="Q55" s="14">
+        <v>26027.07</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>2006</v>
       </c>
@@ -30929,8 +32530,29 @@
       <c r="I56" s="1">
         <v>1368.75</v>
       </c>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K56" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="15">
+        <v>10</v>
+      </c>
+      <c r="M56" s="15">
+        <v>3</v>
+      </c>
+      <c r="N56" s="15">
+        <v>6</v>
+      </c>
+      <c r="O56" s="14">
+        <v>20536.879999999997</v>
+      </c>
+      <c r="P56" s="14">
+        <v>6588.16</v>
+      </c>
+      <c r="Q56" s="14">
+        <v>13517.579999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>2007</v>
       </c>
@@ -30952,8 +32574,15 @@
       <c r="I57" s="1">
         <v>3518.9</v>
       </c>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K57" s="4"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>2006</v>
       </c>
@@ -30975,8 +32604,29 @@
       <c r="I58" s="1">
         <v>2027.52</v>
       </c>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="15">
+        <v>33</v>
+      </c>
+      <c r="M58" s="15">
+        <v>32</v>
+      </c>
+      <c r="N58" s="15">
+        <v>28</v>
+      </c>
+      <c r="O58" s="14">
+        <v>77288.530000000028</v>
+      </c>
+      <c r="P58" s="14">
+        <v>69291.37</v>
+      </c>
+      <c r="Q58" s="14">
+        <v>65306.669999999984</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>2005</v>
       </c>
@@ -30998,8 +32648,29 @@
       <c r="I59" s="1">
         <v>1695.69</v>
       </c>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K59" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="15">
+        <v>7</v>
+      </c>
+      <c r="M59" s="15">
+        <v>4</v>
+      </c>
+      <c r="N59" s="15">
+        <v>7</v>
+      </c>
+      <c r="O59" s="14">
+        <v>14196.109999999999</v>
+      </c>
+      <c r="P59" s="14">
+        <v>9774.07</v>
+      </c>
+      <c r="Q59" s="14">
+        <v>19607.899999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>2007</v>
       </c>
@@ -31021,8 +32692,29 @@
       <c r="I60" s="1">
         <v>2186.1</v>
       </c>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K60" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="15">
+        <v>8</v>
+      </c>
+      <c r="M60" s="15">
+        <v>5</v>
+      </c>
+      <c r="N60" s="15">
+        <v>7</v>
+      </c>
+      <c r="O60" s="14">
+        <v>19714.66</v>
+      </c>
+      <c r="P60" s="14">
+        <v>9470.5400000000009</v>
+      </c>
+      <c r="Q60" s="14">
+        <v>18174.200000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>2007</v>
       </c>
@@ -31044,8 +32736,29 @@
       <c r="I61" s="1">
         <v>2471.04</v>
       </c>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K61" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" s="15">
+        <v>9</v>
+      </c>
+      <c r="M61" s="15">
+        <v>16</v>
+      </c>
+      <c r="N61" s="15">
+        <v>8</v>
+      </c>
+      <c r="O61" s="14">
+        <v>21811.379999999997</v>
+      </c>
+      <c r="P61" s="14">
+        <v>37193.97</v>
+      </c>
+      <c r="Q61" s="14">
+        <v>16823.660000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>2006</v>
       </c>
@@ -31067,8 +32780,29 @@
       <c r="I62" s="1">
         <v>1781.26</v>
       </c>
-    </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="15">
+        <v>9</v>
+      </c>
+      <c r="M62" s="15">
+        <v>7</v>
+      </c>
+      <c r="N62" s="15">
+        <v>6</v>
+      </c>
+      <c r="O62" s="14">
+        <v>21566.38</v>
+      </c>
+      <c r="P62" s="14">
+        <v>12852.79</v>
+      </c>
+      <c r="Q62" s="14">
+        <v>10700.91</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>2006</v>
       </c>
@@ -31090,8 +32824,15 @@
       <c r="I63" s="1">
         <v>2591.0500000000002</v>
       </c>
-    </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K63" s="4"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>2007</v>
       </c>
@@ -31113,8 +32854,29 @@
       <c r="I64" s="1">
         <v>3293.6</v>
       </c>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L64" s="15">
+        <v>12</v>
+      </c>
+      <c r="M64" s="15">
+        <v>22</v>
+      </c>
+      <c r="N64" s="15">
+        <v>20</v>
+      </c>
+      <c r="O64" s="14">
+        <v>24011.45</v>
+      </c>
+      <c r="P64" s="14">
+        <v>48954.55000000001</v>
+      </c>
+      <c r="Q64" s="14">
+        <v>43596.26999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>2007</v>
       </c>
@@ -31136,8 +32898,29 @@
       <c r="I65" s="1">
         <v>2180.85</v>
       </c>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" s="15">
+        <v>1</v>
+      </c>
+      <c r="M65" s="15">
+        <v>6</v>
+      </c>
+      <c r="N65" s="15">
+        <v>3</v>
+      </c>
+      <c r="O65" s="14">
+        <v>1237.68</v>
+      </c>
+      <c r="P65" s="14">
+        <v>13817.34</v>
+      </c>
+      <c r="Q65" s="14">
+        <v>6545.1399999999994</v>
+      </c>
+    </row>
+    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>2005</v>
       </c>
@@ -31159,8 +32942,29 @@
       <c r="I66" s="1">
         <v>1860</v>
       </c>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K66" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="15">
+        <v>4</v>
+      </c>
+      <c r="M66" s="15">
+        <v>2</v>
+      </c>
+      <c r="N66" s="15">
+        <v>8</v>
+      </c>
+      <c r="O66" s="14">
+        <v>7900.5599999999995</v>
+      </c>
+      <c r="P66" s="14">
+        <v>4395.26</v>
+      </c>
+      <c r="Q66" s="14">
+        <v>17427.46</v>
+      </c>
+    </row>
+    <row r="67" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>2007</v>
       </c>
@@ -31182,8 +32986,29 @@
       <c r="I67" s="1">
         <v>1953.05</v>
       </c>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K67" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="15">
+        <v>3</v>
+      </c>
+      <c r="M67" s="15">
+        <v>7</v>
+      </c>
+      <c r="N67" s="15">
+        <v>6</v>
+      </c>
+      <c r="O67" s="14">
+        <v>5245.8</v>
+      </c>
+      <c r="P67" s="14">
+        <v>17863.579999999998</v>
+      </c>
+      <c r="Q67" s="14">
+        <v>13825.92</v>
+      </c>
+    </row>
+    <row r="68" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>2006</v>
       </c>
@@ -31205,8 +33030,29 @@
       <c r="I68" s="1">
         <v>2059.6</v>
       </c>
-    </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K68" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="15">
+        <v>4</v>
+      </c>
+      <c r="M68" s="15">
+        <v>7</v>
+      </c>
+      <c r="N68" s="15">
+        <v>3</v>
+      </c>
+      <c r="O68" s="14">
+        <v>9627.41</v>
+      </c>
+      <c r="P68" s="14">
+        <v>12878.369999999999</v>
+      </c>
+      <c r="Q68" s="14">
+        <v>5797.75</v>
+      </c>
+    </row>
+    <row r="69" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>2005</v>
       </c>
@@ -31228,8 +33074,15 @@
       <c r="I69" s="1">
         <v>3303.44</v>
       </c>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K69" s="4"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+    </row>
+    <row r="70" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>2005</v>
       </c>
@@ -31251,8 +33104,29 @@
       <c r="I70" s="1">
         <v>2329.86</v>
       </c>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K70" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L70" s="15">
+        <v>76</v>
+      </c>
+      <c r="M70" s="15">
+        <v>72</v>
+      </c>
+      <c r="N70" s="15">
+        <v>84</v>
+      </c>
+      <c r="O70" s="14">
+        <v>170623.05999999997</v>
+      </c>
+      <c r="P70" s="14">
+        <v>162606.44</v>
+      </c>
+      <c r="Q70" s="14">
+        <v>178853.27999999991</v>
+      </c>
+    </row>
+    <row r="71" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>2005</v>
       </c>
@@ -31274,8 +33148,29 @@
       <c r="I71" s="1">
         <v>1839.33</v>
       </c>
-    </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K71" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L71" s="15">
+        <v>17</v>
+      </c>
+      <c r="M71" s="15">
+        <v>24</v>
+      </c>
+      <c r="N71" s="15">
+        <v>14</v>
+      </c>
+      <c r="O71" s="14">
+        <v>41919.35</v>
+      </c>
+      <c r="P71" s="14">
+        <v>50950.07</v>
+      </c>
+      <c r="Q71" s="14">
+        <v>30731.590000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>2005</v>
       </c>
@@ -31297,8 +33192,29 @@
       <c r="I72" s="1">
         <v>2405.88</v>
       </c>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K72" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="15">
+        <v>8</v>
+      </c>
+      <c r="M72" s="15">
+        <v>9</v>
+      </c>
+      <c r="N72" s="15">
+        <v>6</v>
+      </c>
+      <c r="O72" s="14">
+        <v>21471.48</v>
+      </c>
+      <c r="P72" s="14">
+        <v>17539.219999999998</v>
+      </c>
+      <c r="Q72" s="14">
+        <v>13176.420000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>2007</v>
       </c>
@@ -31320,8 +33236,29 @@
       <c r="I73" s="1">
         <v>1553.42</v>
       </c>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" s="15">
+        <v>3</v>
+      </c>
+      <c r="M73" s="15">
+        <v>3</v>
+      </c>
+      <c r="N73" s="15">
+        <v>4</v>
+      </c>
+      <c r="O73" s="14">
+        <v>7640.8799999999992</v>
+      </c>
+      <c r="P73" s="14">
+        <v>6608.9600000000009</v>
+      </c>
+      <c r="Q73" s="14">
+        <v>9231.369999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>2007</v>
       </c>
@@ -31343,8 +33280,29 @@
       <c r="I74" s="1">
         <v>1639.84</v>
       </c>
-    </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K74" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" s="15">
+        <v>2</v>
+      </c>
+      <c r="M74" s="15">
+        <v>4</v>
+      </c>
+      <c r="N74" s="15">
+        <v>4</v>
+      </c>
+      <c r="O74" s="14">
+        <v>4495.1499999999996</v>
+      </c>
+      <c r="P74" s="14">
+        <v>11038.24</v>
+      </c>
+      <c r="Q74" s="14">
+        <v>8323.7999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>2006</v>
       </c>
@@ -31366,8 +33324,25 @@
       <c r="I75" s="1">
         <v>1820.88</v>
       </c>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K75" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="15">
+        <v>4</v>
+      </c>
+      <c r="M75" s="15">
+        <v>8</v>
+      </c>
+      <c r="N75" s="15"/>
+      <c r="O75" s="14">
+        <v>8311.84</v>
+      </c>
+      <c r="P75" s="14">
+        <v>15763.650000000001</v>
+      </c>
+      <c r="Q75" s="14"/>
+    </row>
+    <row r="76" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>2006</v>
       </c>
@@ -31389,8 +33364,15 @@
       <c r="I76" s="1">
         <v>1620.24</v>
       </c>
-    </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K76" s="4"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+    </row>
+    <row r="77" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>2006</v>
       </c>
@@ -31412,8 +33394,29 @@
       <c r="I77" s="1">
         <v>1838.85</v>
       </c>
-    </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K77" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L77" s="15">
+        <v>22</v>
+      </c>
+      <c r="M77" s="15">
+        <v>14</v>
+      </c>
+      <c r="N77" s="15">
+        <v>18</v>
+      </c>
+      <c r="O77" s="14">
+        <v>44234.18</v>
+      </c>
+      <c r="P77" s="14">
+        <v>32314.839999999993</v>
+      </c>
+      <c r="Q77" s="14">
+        <v>38446.44</v>
+      </c>
+    </row>
+    <row r="78" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>2005</v>
       </c>
@@ -31435,8 +33438,29 @@
       <c r="I78" s="1">
         <v>2436.1999999999998</v>
       </c>
-    </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78" s="15">
+        <v>7</v>
+      </c>
+      <c r="M78" s="15">
+        <v>1</v>
+      </c>
+      <c r="N78" s="15">
+        <v>6</v>
+      </c>
+      <c r="O78" s="14">
+        <v>14609.519999999999</v>
+      </c>
+      <c r="P78" s="14">
+        <v>3470.04</v>
+      </c>
+      <c r="Q78" s="14">
+        <v>12891.560000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>2007</v>
       </c>
@@ -31458,8 +33482,29 @@
       <c r="I79" s="1">
         <v>1972.06</v>
       </c>
-    </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K79" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L79" s="15">
+        <v>6</v>
+      </c>
+      <c r="M79" s="15">
+        <v>3</v>
+      </c>
+      <c r="N79" s="15">
+        <v>3</v>
+      </c>
+      <c r="O79" s="14">
+        <v>10792.09</v>
+      </c>
+      <c r="P79" s="14">
+        <v>4610.1399999999994</v>
+      </c>
+      <c r="Q79" s="14">
+        <v>7268.7100000000009</v>
+      </c>
+    </row>
+    <row r="80" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>2005</v>
       </c>
@@ -31481,8 +33526,29 @@
       <c r="I80" s="1">
         <v>1574.4</v>
       </c>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K80" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" s="15">
+        <v>4</v>
+      </c>
+      <c r="M80" s="15">
+        <v>6</v>
+      </c>
+      <c r="N80" s="15">
+        <v>5</v>
+      </c>
+      <c r="O80" s="14">
+        <v>8881.2000000000007</v>
+      </c>
+      <c r="P80" s="14">
+        <v>13021.17</v>
+      </c>
+      <c r="Q80" s="14">
+        <v>9872.84</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>2005</v>
       </c>
@@ -31504,8 +33570,29 @@
       <c r="I81" s="1">
         <v>1481.85</v>
       </c>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K81" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" s="15">
+        <v>5</v>
+      </c>
+      <c r="M81" s="15">
+        <v>4</v>
+      </c>
+      <c r="N81" s="15">
+        <v>4</v>
+      </c>
+      <c r="O81" s="14">
+        <v>9951.369999999999</v>
+      </c>
+      <c r="P81" s="14">
+        <v>11213.49</v>
+      </c>
+      <c r="Q81" s="14">
+        <v>8413.33</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>2007</v>
       </c>
@@ -31527,8 +33614,15 @@
       <c r="I82" s="1">
         <v>3170.98</v>
       </c>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K82" s="4"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>2005</v>
       </c>
@@ -31550,8 +33644,29 @@
       <c r="I83" s="1">
         <v>3702.6</v>
       </c>
-    </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K83" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L83" s="15">
+        <v>23</v>
+      </c>
+      <c r="M83" s="15">
+        <v>23</v>
+      </c>
+      <c r="N83" s="15">
+        <v>27</v>
+      </c>
+      <c r="O83" s="14">
+        <v>53902.150000000009</v>
+      </c>
+      <c r="P83" s="14">
+        <v>54380.63</v>
+      </c>
+      <c r="Q83" s="14">
+        <v>56663.710000000006</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>2005</v>
       </c>
@@ -31573,8 +33688,29 @@
       <c r="I84" s="1">
         <v>1773.88</v>
       </c>
-    </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K84" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" s="15">
+        <v>3</v>
+      </c>
+      <c r="M84" s="15">
+        <v>5</v>
+      </c>
+      <c r="N84" s="15">
+        <v>8</v>
+      </c>
+      <c r="O84" s="14">
+        <v>7762.83</v>
+      </c>
+      <c r="P84" s="14">
+        <v>10995.22</v>
+      </c>
+      <c r="Q84" s="14">
+        <v>17480.940000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>2005</v>
       </c>
@@ -31596,8 +33732,29 @@
       <c r="I85" s="1">
         <v>1869.6</v>
       </c>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K85" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L85" s="15">
+        <v>10</v>
+      </c>
+      <c r="M85" s="15">
+        <v>6</v>
+      </c>
+      <c r="N85" s="15">
+        <v>5</v>
+      </c>
+      <c r="O85" s="14">
+        <v>23490.32</v>
+      </c>
+      <c r="P85" s="14">
+        <v>14235.350000000002</v>
+      </c>
+      <c r="Q85" s="14">
+        <v>11723.98</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>2005</v>
       </c>
@@ -31619,8 +33776,29 @@
       <c r="I86" s="1">
         <v>2354.5700000000002</v>
       </c>
-    </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K86" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="15">
+        <v>4</v>
+      </c>
+      <c r="M86" s="15">
+        <v>4</v>
+      </c>
+      <c r="N86" s="15">
+        <v>5</v>
+      </c>
+      <c r="O86" s="14">
+        <v>7606.76</v>
+      </c>
+      <c r="P86" s="14">
+        <v>9482.11</v>
+      </c>
+      <c r="Q86" s="14">
+        <v>10197.44</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>2007</v>
       </c>
@@ -31642,8 +33820,29 @@
       <c r="I87" s="1">
         <v>2003.76</v>
       </c>
-    </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K87" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87" s="15">
+        <v>6</v>
+      </c>
+      <c r="M87" s="15">
+        <v>8</v>
+      </c>
+      <c r="N87" s="15">
+        <v>9</v>
+      </c>
+      <c r="O87" s="14">
+        <v>15042.239999999998</v>
+      </c>
+      <c r="P87" s="14">
+        <v>19667.95</v>
+      </c>
+      <c r="Q87" s="14">
+        <v>17261.350000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>2006</v>
       </c>
@@ -31665,8 +33864,15 @@
       <c r="I88" s="1">
         <v>1514.52</v>
       </c>
-    </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K88" s="4"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>2005</v>
       </c>
@@ -31688,8 +33894,29 @@
       <c r="I89" s="1">
         <v>2474.34</v>
       </c>
-    </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L89" s="15">
+        <v>14</v>
+      </c>
+      <c r="M89" s="15">
+        <v>11</v>
+      </c>
+      <c r="N89" s="15">
+        <v>25</v>
+      </c>
+      <c r="O89" s="14">
+        <v>30567.379999999997</v>
+      </c>
+      <c r="P89" s="14">
+        <v>24960.899999999998</v>
+      </c>
+      <c r="Q89" s="14">
+        <v>53011.539999999994</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>2005</v>
       </c>
@@ -31711,8 +33938,29 @@
       <c r="I90" s="1">
         <v>2783.32</v>
       </c>
-    </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K90" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L90" s="15">
+        <v>3</v>
+      </c>
+      <c r="M90" s="15">
+        <v>4</v>
+      </c>
+      <c r="N90" s="15">
+        <v>6</v>
+      </c>
+      <c r="O90" s="14">
+        <v>5791.1</v>
+      </c>
+      <c r="P90" s="14">
+        <v>8412.65</v>
+      </c>
+      <c r="Q90" s="14">
+        <v>14578.34</v>
+      </c>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>2006</v>
       </c>
@@ -31734,8 +33982,29 @@
       <c r="I91" s="1">
         <v>1654.56</v>
       </c>
-    </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K91" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L91" s="15">
+        <v>3</v>
+      </c>
+      <c r="M91" s="15">
+        <v>2</v>
+      </c>
+      <c r="N91" s="15">
+        <v>3</v>
+      </c>
+      <c r="O91" s="14">
+        <v>7579.02</v>
+      </c>
+      <c r="P91" s="14">
+        <v>5857.0599999999995</v>
+      </c>
+      <c r="Q91" s="14">
+        <v>5261.65</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>2005</v>
       </c>
@@ -31757,8 +34026,29 @@
       <c r="I92" s="1">
         <v>3674.84</v>
       </c>
-    </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K92" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" s="15">
+        <v>2</v>
+      </c>
+      <c r="M92" s="15">
+        <v>5</v>
+      </c>
+      <c r="N92" s="15">
+        <v>7</v>
+      </c>
+      <c r="O92" s="14">
+        <v>4528.3100000000004</v>
+      </c>
+      <c r="P92" s="14">
+        <v>10691.19</v>
+      </c>
+      <c r="Q92" s="14">
+        <v>15688.3</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>2007</v>
       </c>
@@ -31780,8 +34070,25 @@
       <c r="I93" s="1">
         <v>1963.2</v>
       </c>
-    </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K93" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" s="15">
+        <v>6</v>
+      </c>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15">
+        <v>9</v>
+      </c>
+      <c r="O93" s="14">
+        <v>12668.949999999999</v>
+      </c>
+      <c r="P93" s="14"/>
+      <c r="Q93" s="14">
+        <v>17483.25</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>2005</v>
       </c>
@@ -31803,8 +34110,15 @@
       <c r="I94" s="1">
         <v>2383.83</v>
       </c>
-    </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="K94" s="4"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="14"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>2005</v>
       </c>
@@ -31827,7 +34141,7 @@
         <v>2188.8000000000002</v>
       </c>
     </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>2007</v>
       </c>
@@ -50896,11 +53210,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId5"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J81"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
@@ -50912,11 +53235,10 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="8" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -53143,2569 +55465,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:J228"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>2007</v>
-      </c>
-      <c r="B6" s="5">
-        <v>233161</v>
-      </c>
-      <c r="C6" s="5">
-        <v>702395.82000000018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="5">
-        <v>56981</v>
-      </c>
-      <c r="C7" s="5">
-        <v>170623.06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="5">
-        <v>10430</v>
-      </c>
-      <c r="C8" s="5">
-        <v>30567.379999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5">
-        <v>4379</v>
-      </c>
-      <c r="C9" s="5">
-        <v>12668.949999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1545</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4528.3100000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2322</v>
-      </c>
-      <c r="C11" s="5">
-        <v>7579.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2184</v>
-      </c>
-      <c r="C12" s="5">
-        <v>5791.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="5">
-        <v>17573</v>
-      </c>
-      <c r="C13" s="5">
-        <v>53902.150000000009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="5">
-        <v>4668</v>
-      </c>
-      <c r="C14" s="5">
-        <v>15042.239999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2431</v>
-      </c>
-      <c r="C15" s="5">
-        <v>7606.76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5">
-        <v>7957</v>
-      </c>
-      <c r="C16" s="5">
-        <v>23490.320000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2517</v>
-      </c>
-      <c r="C17" s="5">
-        <v>7762.83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="5">
-        <v>14782</v>
-      </c>
-      <c r="C18" s="5">
-        <v>44234.18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5">
-        <v>3571</v>
-      </c>
-      <c r="C19" s="5">
-        <v>9951.369999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2778</v>
-      </c>
-      <c r="C20" s="5">
-        <v>8881.2000000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="5">
-        <v>3594</v>
-      </c>
-      <c r="C21" s="5">
-        <v>10792.09</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5">
-        <v>4839</v>
-      </c>
-      <c r="C22" s="5">
-        <v>14609.52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="5">
-        <v>14196</v>
-      </c>
-      <c r="C23" s="5">
-        <v>41919.350000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="5">
-        <v>3252</v>
-      </c>
-      <c r="C24" s="5">
-        <v>8311.84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1562</v>
-      </c>
-      <c r="C25" s="5">
-        <v>4495.1499999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="5">
-        <v>2621</v>
-      </c>
-      <c r="C26" s="5">
-        <v>7640.8799999999992</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="5">
-        <v>6761</v>
-      </c>
-      <c r="C27" s="5">
-        <v>21471.480000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="5">
-        <v>55693</v>
-      </c>
-      <c r="C28" s="5">
-        <v>169327.53000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="5">
-        <v>7542</v>
-      </c>
-      <c r="C29" s="5">
-        <v>24011.449999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="5">
-        <v>2719</v>
-      </c>
-      <c r="C30" s="5">
-        <v>9627.41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1814</v>
-      </c>
-      <c r="C31" s="5">
-        <v>5245.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="5">
-        <v>2436</v>
-      </c>
-      <c r="C32" s="5">
-        <v>7900.5599999999995</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="5">
-        <v>573</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1237.68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="5">
-        <v>25335</v>
-      </c>
-      <c r="C34" s="5">
-        <v>77288.53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="5">
-        <v>7194</v>
-      </c>
-      <c r="C35" s="5">
-        <v>21566.38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="5">
-        <v>6895</v>
-      </c>
-      <c r="C36" s="5">
-        <v>21811.38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="5">
-        <v>6697</v>
-      </c>
-      <c r="C37" s="5">
-        <v>19714.66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="5">
-        <v>4549</v>
-      </c>
-      <c r="C38" s="5">
-        <v>14196.11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="5">
-        <v>22816</v>
-      </c>
-      <c r="C39" s="5">
-        <v>68027.549999999988</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="5">
-        <v>6661</v>
-      </c>
-      <c r="C40" s="5">
-        <v>20536.879999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="5">
-        <v>8221</v>
-      </c>
-      <c r="C41" s="5">
-        <v>24448.16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="5">
-        <v>5176</v>
-      </c>
-      <c r="C42" s="5">
-        <v>14952.03</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="5">
-        <v>2758</v>
-      </c>
-      <c r="C43" s="5">
-        <v>8090.4800000000005</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="5">
-        <v>61816</v>
-      </c>
-      <c r="C44" s="5">
-        <v>189616.26999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="5">
-        <v>13256</v>
-      </c>
-      <c r="C45" s="5">
-        <v>40939.040000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="5">
-        <v>5123</v>
-      </c>
-      <c r="C46" s="5">
-        <v>15069.53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="5">
-        <v>1855</v>
-      </c>
-      <c r="C47" s="5">
-        <v>4829.24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="5">
-        <v>1775</v>
-      </c>
-      <c r="C48" s="5">
-        <v>5739.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="5">
-        <v>4503</v>
-      </c>
-      <c r="C49" s="5">
-        <v>15300.97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="5">
-        <v>16124</v>
-      </c>
-      <c r="C50" s="5">
-        <v>49062.459999999992</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="5">
-        <v>1485</v>
-      </c>
-      <c r="C51" s="5">
-        <v>4362.1499999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="5">
-        <v>3903</v>
-      </c>
-      <c r="C52" s="5">
-        <v>13286.17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="5">
-        <v>4014</v>
-      </c>
-      <c r="C53" s="5">
-        <v>12865.81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="5">
-        <v>6722</v>
-      </c>
-      <c r="C54" s="5">
-        <v>18548.329999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="5">
-        <v>16319</v>
-      </c>
-      <c r="C55" s="5">
-        <v>49400.740000000005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="5">
-        <v>7685</v>
-      </c>
-      <c r="C56" s="5">
-        <v>21759.910000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" s="5">
-        <v>5869</v>
-      </c>
-      <c r="C57" s="5">
-        <v>18910.850000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="5">
-        <v>1568</v>
-      </c>
-      <c r="C58" s="5">
-        <v>5302.96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="5">
-        <v>1197</v>
-      </c>
-      <c r="C59" s="5">
-        <v>3427.02</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" s="5">
-        <v>16117</v>
-      </c>
-      <c r="C60" s="5">
-        <v>50214.03</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="5">
-        <v>4003</v>
-      </c>
-      <c r="C61" s="5">
-        <v>11389.46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" s="5">
-        <v>4272</v>
-      </c>
-      <c r="C62" s="5">
-        <v>12332.460000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="5">
-        <v>3165</v>
-      </c>
-      <c r="C63" s="5">
-        <v>9951.75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="5">
-        <v>4677</v>
-      </c>
-      <c r="C64" s="5">
-        <v>16540.36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B65" s="5">
-        <v>58671</v>
-      </c>
-      <c r="C65" s="5">
-        <v>172828.96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66" s="5">
-        <v>13652</v>
-      </c>
-      <c r="C66" s="5">
-        <v>38617.119999999995</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="5">
-        <v>1586</v>
-      </c>
-      <c r="C67" s="5">
-        <v>4633.76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B68" s="5">
-        <v>3064</v>
-      </c>
-      <c r="C68" s="5">
-        <v>8635.2999999999993</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="5">
-        <v>4207</v>
-      </c>
-      <c r="C69" s="5">
-        <v>11409.849999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="5">
-        <v>4795</v>
-      </c>
-      <c r="C70" s="5">
-        <v>13938.209999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="5">
-        <v>27715</v>
-      </c>
-      <c r="C71" s="5">
-        <v>81254.09</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="5">
-        <v>10115</v>
-      </c>
-      <c r="C72" s="5">
-        <v>27038.269999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" s="5">
-        <v>5329</v>
-      </c>
-      <c r="C73" s="5">
-        <v>16632.900000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="5">
-        <v>8366</v>
-      </c>
-      <c r="C74" s="5">
-        <v>25008.009999999995</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" s="5">
-        <v>3905</v>
-      </c>
-      <c r="C75" s="5">
-        <v>12574.909999999998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" s="5">
-        <v>17304</v>
-      </c>
-      <c r="C76" s="5">
-        <v>52957.75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B77" s="5">
-        <v>2328</v>
-      </c>
-      <c r="C77" s="5">
-        <v>6860.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="5">
-        <v>5826</v>
-      </c>
-      <c r="C78" s="5">
-        <v>17647.739999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="5">
-        <v>3789</v>
-      </c>
-      <c r="C79" s="5">
-        <v>12736.820000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" s="5">
-        <v>5361</v>
-      </c>
-      <c r="C80" s="5">
-        <v>15712.789999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>2006</v>
-      </c>
-      <c r="B81" s="5">
-        <v>216738</v>
-      </c>
-      <c r="C81" s="5">
-        <v>637719.84999999986</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" s="5">
-        <v>54117</v>
-      </c>
-      <c r="C82" s="5">
-        <v>162606.44</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B83" s="5">
-        <v>8056</v>
-      </c>
-      <c r="C83" s="5">
-        <v>24960.9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="5">
-        <v>3732</v>
-      </c>
-      <c r="C84" s="5">
-        <v>10691.19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B85" s="5">
-        <v>1505</v>
-      </c>
-      <c r="C85" s="5">
-        <v>5857.0599999999995</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B86" s="5">
-        <v>2819</v>
-      </c>
-      <c r="C86" s="5">
-        <v>8412.65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B87" s="5">
-        <v>17421</v>
-      </c>
-      <c r="C87" s="5">
-        <v>54380.630000000005</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" s="5">
-        <v>6091</v>
-      </c>
-      <c r="C88" s="5">
-        <v>19667.95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" s="5">
-        <v>2929</v>
-      </c>
-      <c r="C89" s="5">
-        <v>9482.11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="5">
-        <v>4489</v>
-      </c>
-      <c r="C90" s="5">
-        <v>14235.35</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B91" s="5">
-        <v>3912</v>
-      </c>
-      <c r="C91" s="5">
-        <v>10995.22</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B92" s="5">
-        <v>11102</v>
-      </c>
-      <c r="C92" s="5">
-        <v>32314.84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B93" s="5">
-        <v>3572</v>
-      </c>
-      <c r="C93" s="5">
-        <v>11213.49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94" s="5">
-        <v>4732</v>
-      </c>
-      <c r="C94" s="5">
-        <v>13021.17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" s="5">
-        <v>1880</v>
-      </c>
-      <c r="C95" s="5">
-        <v>4610.1399999999994</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B96" s="5">
-        <v>918</v>
-      </c>
-      <c r="C96" s="5">
-        <v>3470.04</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B97" s="5">
-        <v>17538</v>
-      </c>
-      <c r="C97" s="5">
-        <v>50950.069999999992</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" s="5">
-        <v>5866</v>
-      </c>
-      <c r="C98" s="5">
-        <v>15763.650000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B99" s="5">
-        <v>3313</v>
-      </c>
-      <c r="C99" s="5">
-        <v>11038.24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100" s="5">
-        <v>2358</v>
-      </c>
-      <c r="C100" s="5">
-        <v>6608.9600000000009</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B101" s="5">
-        <v>6001</v>
-      </c>
-      <c r="C101" s="5">
-        <v>17539.219999999998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" s="5">
-        <v>56222</v>
-      </c>
-      <c r="C102" s="5">
-        <v>167211.04000000004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B103" s="5">
-        <v>16238</v>
-      </c>
-      <c r="C103" s="5">
-        <v>48954.55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B104" s="5">
-        <v>5222</v>
-      </c>
-      <c r="C104" s="5">
-        <v>12878.369999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B105" s="5">
-        <v>5691</v>
-      </c>
-      <c r="C105" s="5">
-        <v>17863.579999999998</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B106" s="5">
-        <v>1157</v>
-      </c>
-      <c r="C106" s="5">
-        <v>4395.26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B107" s="5">
-        <v>4168</v>
-      </c>
-      <c r="C107" s="5">
-        <v>13817.34</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B108" s="5">
-        <v>23382</v>
-      </c>
-      <c r="C108" s="5">
-        <v>69291.37</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B109" s="5">
-        <v>4766</v>
-      </c>
-      <c r="C109" s="5">
-        <v>12852.79</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B110" s="5">
-        <v>12295</v>
-      </c>
-      <c r="C110" s="5">
-        <v>37193.969999999994</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B111" s="5">
-        <v>3324</v>
-      </c>
-      <c r="C111" s="5">
-        <v>9470.5400000000009</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B112" s="5">
-        <v>2997</v>
-      </c>
-      <c r="C112" s="5">
-        <v>9774.07</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B113" s="5">
-        <v>16602</v>
-      </c>
-      <c r="C113" s="5">
-        <v>48965.119999999995</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B114" s="5">
-        <v>2396</v>
-      </c>
-      <c r="C114" s="5">
-        <v>6588.16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B115" s="5">
-        <v>5248</v>
-      </c>
-      <c r="C115" s="5">
-        <v>16563.730000000003</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B116" s="5">
-        <v>4453</v>
-      </c>
-      <c r="C116" s="5">
-        <v>11668.51</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B117" s="5">
-        <v>4505</v>
-      </c>
-      <c r="C117" s="5">
-        <v>14144.719999999998</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B118" s="5">
-        <v>53910</v>
-      </c>
-      <c r="C118" s="5">
-        <v>157192.37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B119" s="5">
-        <v>12090</v>
-      </c>
-      <c r="C119" s="5">
-        <v>34879.74</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B120" s="5">
-        <v>3707</v>
-      </c>
-      <c r="C120" s="5">
-        <v>11024.109999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B121" s="5">
-        <v>4717</v>
-      </c>
-      <c r="C121" s="5">
-        <v>14052.05</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B122" s="5">
-        <v>2238</v>
-      </c>
-      <c r="C122" s="5">
-        <v>5535.45</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B123" s="5">
-        <v>1428</v>
-      </c>
-      <c r="C123" s="5">
-        <v>4268.13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B124" s="5">
-        <v>14712</v>
-      </c>
-      <c r="C124" s="5">
-        <v>42513.75</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B125" s="5">
-        <v>1608</v>
-      </c>
-      <c r="C125" s="5">
-        <v>4189.04</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B126" s="5">
-        <v>3412</v>
-      </c>
-      <c r="C126" s="5">
-        <v>10886.5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B127" s="5">
-        <v>3663</v>
-      </c>
-      <c r="C127" s="5">
-        <v>10116.26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B128" s="5">
-        <v>6029</v>
-      </c>
-      <c r="C128" s="5">
-        <v>17321.949999999997</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B129" s="5">
-        <v>8397</v>
-      </c>
-      <c r="C129" s="5">
-        <v>22496.5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B130" s="5">
-        <v>5264</v>
-      </c>
-      <c r="C130" s="5">
-        <v>14808.91</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B131" s="5">
-        <v>1803</v>
-      </c>
-      <c r="C131" s="5">
-        <v>4427.91</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B132" s="5">
-        <v>1330</v>
-      </c>
-      <c r="C132" s="5">
-        <v>3259.68</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B133" s="5">
-        <v>18711</v>
-      </c>
-      <c r="C133" s="5">
-        <v>57302.380000000005</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B134" s="5">
-        <v>6085</v>
-      </c>
-      <c r="C134" s="5">
-        <v>19523.320000000003</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B135" s="5">
-        <v>4322</v>
-      </c>
-      <c r="C135" s="5">
-        <v>12965.279999999999</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B136" s="5">
-        <v>4063</v>
-      </c>
-      <c r="C136" s="5">
-        <v>11362.89</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B137" s="5">
-        <v>4241</v>
-      </c>
-      <c r="C137" s="5">
-        <v>13450.890000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B138" s="5">
-        <v>52489</v>
-      </c>
-      <c r="C138" s="5">
-        <v>150710</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B139" s="5">
-        <v>16142</v>
-      </c>
-      <c r="C139" s="5">
-        <v>46657.49</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B140" s="5">
-        <v>1454</v>
-      </c>
-      <c r="C140" s="5">
-        <v>4696.16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B141" s="5">
-        <v>6424</v>
-      </c>
-      <c r="C141" s="5">
-        <v>18450.16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B142" s="5">
-        <v>3027</v>
-      </c>
-      <c r="C142" s="5">
-        <v>10199.31</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B143" s="5">
-        <v>5237</v>
-      </c>
-      <c r="C143" s="5">
-        <v>13311.86</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B144" s="5">
-        <v>24056</v>
-      </c>
-      <c r="C144" s="5">
-        <v>69391.290000000008</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B145" s="5">
-        <v>4515</v>
-      </c>
-      <c r="C145" s="5">
-        <v>14147.68</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B146" s="5">
-        <v>6015</v>
-      </c>
-      <c r="C146" s="5">
-        <v>16593.97</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B147" s="5">
-        <v>7505</v>
-      </c>
-      <c r="C147" s="5">
-        <v>23099.35</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B148" s="5">
-        <v>6021</v>
-      </c>
-      <c r="C148" s="5">
-        <v>15550.29</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B149" s="5">
-        <v>12291</v>
-      </c>
-      <c r="C149" s="5">
-        <v>34661.22</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B150" s="5">
-        <v>2585</v>
-      </c>
-      <c r="C150" s="5">
-        <v>7715.7800000000007</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B151" s="5">
-        <v>3436</v>
-      </c>
-      <c r="C151" s="5">
-        <v>9125.6200000000008</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B152" s="5">
-        <v>2570</v>
-      </c>
-      <c r="C152" s="5">
-        <v>8665.32</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B153" s="5">
-        <v>3700</v>
-      </c>
-      <c r="C153" s="5">
-        <v>9154.5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
-        <v>2005</v>
-      </c>
-      <c r="B154" s="5">
-        <v>243228</v>
-      </c>
-      <c r="C154" s="5">
-        <v>728218.67999999993</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B155" s="5">
-        <v>62974</v>
-      </c>
-      <c r="C155" s="5">
-        <v>178853.28</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B156" s="5">
-        <v>18063</v>
-      </c>
-      <c r="C156" s="5">
-        <v>53011.540000000008</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B157" s="5">
-        <v>6326</v>
-      </c>
-      <c r="C157" s="5">
-        <v>17483.25</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B158" s="5">
-        <v>5237</v>
-      </c>
-      <c r="C158" s="5">
-        <v>15688.3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B159" s="5">
-        <v>2200</v>
-      </c>
-      <c r="C159" s="5">
-        <v>5261.65</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B160" s="5">
-        <v>4300</v>
-      </c>
-      <c r="C160" s="5">
-        <v>14578.340000000002</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B161" s="5">
-        <v>20698</v>
-      </c>
-      <c r="C161" s="5">
-        <v>56663.710000000006</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B162" s="5">
-        <v>6183</v>
-      </c>
-      <c r="C162" s="5">
-        <v>17261.350000000002</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B163" s="5">
-        <v>3648</v>
-      </c>
-      <c r="C163" s="5">
-        <v>10197.44</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B164" s="5">
-        <v>4034</v>
-      </c>
-      <c r="C164" s="5">
-        <v>11723.98</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B165" s="5">
-        <v>6833</v>
-      </c>
-      <c r="C165" s="5">
-        <v>17480.940000000002</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B166" s="5">
-        <v>12662</v>
-      </c>
-      <c r="C166" s="5">
-        <v>38446.44</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B167" s="5">
-        <v>2809</v>
-      </c>
-      <c r="C167" s="5">
-        <v>8413.33</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B168" s="5">
-        <v>3569</v>
-      </c>
-      <c r="C168" s="5">
-        <v>9872.84</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B169" s="5">
-        <v>1922</v>
-      </c>
-      <c r="C169" s="5">
-        <v>7268.71</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B170" s="5">
-        <v>4362</v>
-      </c>
-      <c r="C170" s="5">
-        <v>12891.560000000001</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B171" s="5">
-        <v>11551</v>
-      </c>
-      <c r="C171" s="5">
-        <v>30731.59</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B172" s="5">
-        <v>3156</v>
-      </c>
-      <c r="C172" s="5">
-        <v>8323.7999999999993</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B173" s="5">
-        <v>3502</v>
-      </c>
-      <c r="C173" s="5">
-        <v>9231.369999999999</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B174" s="5">
-        <v>4893</v>
-      </c>
-      <c r="C174" s="5">
-        <v>13176.420000000002</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B175" s="5">
-        <v>56518</v>
-      </c>
-      <c r="C175" s="5">
-        <v>174378.59</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B176" s="5">
-        <v>14344</v>
-      </c>
-      <c r="C176" s="5">
-        <v>43596.270000000004</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B177" s="5">
-        <v>1691</v>
-      </c>
-      <c r="C177" s="5">
-        <v>5797.75</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B178" s="5">
-        <v>4531</v>
-      </c>
-      <c r="C178" s="5">
-        <v>13825.920000000002</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B179" s="5">
-        <v>5696</v>
-      </c>
-      <c r="C179" s="5">
-        <v>17427.46</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B180" s="5">
-        <v>2426</v>
-      </c>
-      <c r="C180" s="5">
-        <v>6545.1399999999994</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B181" s="5">
-        <v>21369</v>
-      </c>
-      <c r="C181" s="5">
-        <v>65306.67</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B182" s="5">
-        <v>4295</v>
-      </c>
-      <c r="C182" s="5">
-        <v>10700.91</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B183" s="5">
-        <v>5830</v>
-      </c>
-      <c r="C183" s="5">
-        <v>16823.659999999996</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B184" s="5">
-        <v>5410</v>
-      </c>
-      <c r="C184" s="5">
-        <v>18174.2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B185" s="5">
-        <v>5834</v>
-      </c>
-      <c r="C185" s="5">
-        <v>19607.900000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B186" s="5">
-        <v>20805</v>
-      </c>
-      <c r="C186" s="5">
-        <v>65475.649999999994</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B187" s="5">
-        <v>4366</v>
-      </c>
-      <c r="C187" s="5">
-        <v>13517.579999999998</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B188" s="5">
-        <v>8682</v>
-      </c>
-      <c r="C188" s="5">
-        <v>26027.069999999996</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B189" s="5">
-        <v>4196</v>
-      </c>
-      <c r="C189" s="5">
-        <v>13937.8</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B190" s="5">
-        <v>3561</v>
-      </c>
-      <c r="C190" s="5">
-        <v>11993.2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B191" s="5">
-        <v>60047</v>
-      </c>
-      <c r="C191" s="5">
-        <v>182813.87999999998</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B192" s="5">
-        <v>14535</v>
-      </c>
-      <c r="C192" s="5">
-        <v>48127.740000000005</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B193" s="5">
-        <v>5255</v>
-      </c>
-      <c r="C193" s="5">
-        <v>15759.59</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B194" s="5">
-        <v>4317</v>
-      </c>
-      <c r="C194" s="5">
-        <v>14763.88</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B195" s="5">
-        <v>3734</v>
-      </c>
-      <c r="C195" s="5">
-        <v>13631.83</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B196" s="5">
-        <v>1229</v>
-      </c>
-      <c r="C196" s="5">
-        <v>3972.4399999999996</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B197" s="5">
-        <v>11083</v>
-      </c>
-      <c r="C197" s="5">
-        <v>32042.39</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B198" s="5">
-        <v>2459</v>
-      </c>
-      <c r="C198" s="5">
-        <v>7811.1100000000006</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B199" s="5">
-        <v>3277</v>
-      </c>
-      <c r="C199" s="5">
-        <v>9092.92</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B200" s="5">
-        <v>3701</v>
-      </c>
-      <c r="C200" s="5">
-        <v>11087.14</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B201" s="5">
-        <v>1646</v>
-      </c>
-      <c r="C201" s="5">
-        <v>4051.2200000000003</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B202" s="5">
-        <v>20005</v>
-      </c>
-      <c r="C202" s="5">
-        <v>60126.15</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B203" s="5">
-        <v>4061</v>
-      </c>
-      <c r="C203" s="5">
-        <v>11900.19</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B204" s="5">
-        <v>6268</v>
-      </c>
-      <c r="C204" s="5">
-        <v>20474.650000000001</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B205" s="5">
-        <v>4865</v>
-      </c>
-      <c r="C205" s="5">
-        <v>14698.63</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B206" s="5">
-        <v>4811</v>
-      </c>
-      <c r="C206" s="5">
-        <v>13052.679999999998</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B207" s="5">
-        <v>14424</v>
-      </c>
-      <c r="C207" s="5">
-        <v>42517.600000000006</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B208" s="5">
-        <v>6106</v>
-      </c>
-      <c r="C208" s="5">
-        <v>17680.490000000002</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B209" s="5">
-        <v>4587</v>
-      </c>
-      <c r="C209" s="5">
-        <v>12284.04</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B210" s="5">
-        <v>1515</v>
-      </c>
-      <c r="C210" s="5">
-        <v>5055.55</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B211" s="5">
-        <v>2216</v>
-      </c>
-      <c r="C211" s="5">
-        <v>7497.52</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B212" s="5">
-        <v>63689</v>
-      </c>
-      <c r="C212" s="5">
-        <v>192172.92999999996</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B213" s="5">
-        <v>11163</v>
-      </c>
-      <c r="C213" s="5">
-        <v>32993.1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B214" s="5">
-        <v>4614</v>
-      </c>
-      <c r="C214" s="5">
-        <v>13732.83</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B215" s="5">
-        <v>3265</v>
-      </c>
-      <c r="C215" s="5">
-        <v>9216.4699999999993</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B216" s="5">
-        <v>1639</v>
-      </c>
-      <c r="C216" s="5">
-        <v>4988</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B217" s="5">
-        <v>1645</v>
-      </c>
-      <c r="C217" s="5">
-        <v>5055.7999999999993</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B218" s="5">
-        <v>35797</v>
-      </c>
-      <c r="C218" s="5">
-        <v>105793.04</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B219" s="5">
-        <v>12124</v>
-      </c>
-      <c r="C219" s="5">
-        <v>37401.269999999997</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B220" s="5">
-        <v>8989</v>
-      </c>
-      <c r="C220" s="5">
-        <v>26069.35</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B221" s="5">
-        <v>8458</v>
-      </c>
-      <c r="C221" s="5">
-        <v>22822.229999999996</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B222" s="5">
-        <v>6226</v>
-      </c>
-      <c r="C222" s="5">
-        <v>19500.189999999999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B223" s="5">
-        <v>16729</v>
-      </c>
-      <c r="C223" s="5">
-        <v>53386.789999999994</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B224" s="5">
-        <v>6902</v>
-      </c>
-      <c r="C224" s="5">
-        <v>21092.749999999996</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B225" s="5">
-        <v>3366</v>
-      </c>
-      <c r="C225" s="5">
-        <v>11339.47</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B226" s="5">
-        <v>4172</v>
-      </c>
-      <c r="C226" s="5">
-        <v>14956.359999999999</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B227" s="5">
-        <v>2289</v>
-      </c>
-      <c r="C227" s="5">
-        <v>5998.2099999999991</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B228" s="5">
-        <v>693127</v>
-      </c>
-      <c r="C228" s="5">
-        <v>2068334.3499999994</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting pivot="1" sqref="B8 B13 B18 B23 B29 B34 B39 B45 B50 B55 B60 B66 B71 B76 B83 B87 B92 B97 B103 B108 B113 B119 B124 B129 B133 B139 B144 B149 B156 B161 B166 B171 B176 B181 B186 B192 B197 B202 B207 B213 B218 B223">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B8">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B8 B13 B18 B23 B29 B34 B39 B45 B50 B55 B60 B66 B71 B76 B83 B87 B92 B97 B103 B108 B113 B119 B124 B129 B133 B139 B144 B149 B156 B161 B166 B171 B176 B181 B186 B192 B197 B202 B207 B213 B218 B223">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B8">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B8 B13 B18 B23 B29 B34 B39 B45 B50 B55 B60 B66 B71 B76 B83 B87 B92 B97 B103 B108 B113 B119 B124 B129 B133 B139 B144 B149 B156 B161 B166 B171 B176 B181 B186 B192 B197 B202 B207 B213 B218 B223">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J284"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
@@ -55745,6 +55516,2588 @@
       <c r="A6" s="3">
         <v>2007</v>
       </c>
+      <c r="B6" s="5">
+        <v>233161</v>
+      </c>
+      <c r="C6" s="5">
+        <v>702395.82000000018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5">
+        <v>56981</v>
+      </c>
+      <c r="C7" s="5">
+        <v>170623.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10430</v>
+      </c>
+      <c r="C8" s="5">
+        <v>30567.379999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4379</v>
+      </c>
+      <c r="C9" s="5">
+        <v>12668.949999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1545</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4528.3100000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2322</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7579.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2184</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5791.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="5">
+        <v>17573</v>
+      </c>
+      <c r="C13" s="5">
+        <v>53902.150000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4668</v>
+      </c>
+      <c r="C14" s="5">
+        <v>15042.239999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2431</v>
+      </c>
+      <c r="C15" s="5">
+        <v>7606.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7957</v>
+      </c>
+      <c r="C16" s="5">
+        <v>23490.320000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2517</v>
+      </c>
+      <c r="C17" s="5">
+        <v>7762.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5">
+        <v>14782</v>
+      </c>
+      <c r="C18" s="5">
+        <v>44234.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5">
+        <v>3571</v>
+      </c>
+      <c r="C19" s="5">
+        <v>9951.369999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2778</v>
+      </c>
+      <c r="C20" s="5">
+        <v>8881.2000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3594</v>
+      </c>
+      <c r="C21" s="5">
+        <v>10792.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4839</v>
+      </c>
+      <c r="C22" s="5">
+        <v>14609.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="5">
+        <v>14196</v>
+      </c>
+      <c r="C23" s="5">
+        <v>41919.350000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3252</v>
+      </c>
+      <c r="C24" s="5">
+        <v>8311.84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1562</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4495.1499999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2621</v>
+      </c>
+      <c r="C26" s="5">
+        <v>7640.8799999999992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="5">
+        <v>6761</v>
+      </c>
+      <c r="C27" s="5">
+        <v>21471.480000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5">
+        <v>55693</v>
+      </c>
+      <c r="C28" s="5">
+        <v>169327.53000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="5">
+        <v>7542</v>
+      </c>
+      <c r="C29" s="5">
+        <v>24011.449999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2719</v>
+      </c>
+      <c r="C30" s="5">
+        <v>9627.41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1814</v>
+      </c>
+      <c r="C31" s="5">
+        <v>5245.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2436</v>
+      </c>
+      <c r="C32" s="5">
+        <v>7900.5599999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="5">
+        <v>573</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1237.68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="5">
+        <v>25335</v>
+      </c>
+      <c r="C34" s="5">
+        <v>77288.53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="5">
+        <v>7194</v>
+      </c>
+      <c r="C35" s="5">
+        <v>21566.38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="5">
+        <v>6895</v>
+      </c>
+      <c r="C36" s="5">
+        <v>21811.38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="5">
+        <v>6697</v>
+      </c>
+      <c r="C37" s="5">
+        <v>19714.66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="5">
+        <v>4549</v>
+      </c>
+      <c r="C38" s="5">
+        <v>14196.11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="5">
+        <v>22816</v>
+      </c>
+      <c r="C39" s="5">
+        <v>68027.549999999988</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="5">
+        <v>6661</v>
+      </c>
+      <c r="C40" s="5">
+        <v>20536.879999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="5">
+        <v>8221</v>
+      </c>
+      <c r="C41" s="5">
+        <v>24448.16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="5">
+        <v>5176</v>
+      </c>
+      <c r="C42" s="5">
+        <v>14952.03</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2758</v>
+      </c>
+      <c r="C43" s="5">
+        <v>8090.4800000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="5">
+        <v>61816</v>
+      </c>
+      <c r="C44" s="5">
+        <v>189616.26999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="5">
+        <v>13256</v>
+      </c>
+      <c r="C45" s="5">
+        <v>40939.040000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="5">
+        <v>5123</v>
+      </c>
+      <c r="C46" s="5">
+        <v>15069.53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1855</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4829.24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1775</v>
+      </c>
+      <c r="C48" s="5">
+        <v>5739.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="5">
+        <v>4503</v>
+      </c>
+      <c r="C49" s="5">
+        <v>15300.97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="5">
+        <v>16124</v>
+      </c>
+      <c r="C50" s="5">
+        <v>49062.459999999992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1485</v>
+      </c>
+      <c r="C51" s="5">
+        <v>4362.1499999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="5">
+        <v>3903</v>
+      </c>
+      <c r="C52" s="5">
+        <v>13286.17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="5">
+        <v>4014</v>
+      </c>
+      <c r="C53" s="5">
+        <v>12865.81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="5">
+        <v>6722</v>
+      </c>
+      <c r="C54" s="5">
+        <v>18548.329999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="5">
+        <v>16319</v>
+      </c>
+      <c r="C55" s="5">
+        <v>49400.740000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="5">
+        <v>7685</v>
+      </c>
+      <c r="C56" s="5">
+        <v>21759.910000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="5">
+        <v>5869</v>
+      </c>
+      <c r="C57" s="5">
+        <v>18910.850000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="5">
+        <v>1568</v>
+      </c>
+      <c r="C58" s="5">
+        <v>5302.96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="5">
+        <v>1197</v>
+      </c>
+      <c r="C59" s="5">
+        <v>3427.02</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="5">
+        <v>16117</v>
+      </c>
+      <c r="C60" s="5">
+        <v>50214.03</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="5">
+        <v>4003</v>
+      </c>
+      <c r="C61" s="5">
+        <v>11389.46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="5">
+        <v>4272</v>
+      </c>
+      <c r="C62" s="5">
+        <v>12332.460000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="5">
+        <v>3165</v>
+      </c>
+      <c r="C63" s="5">
+        <v>9951.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="5">
+        <v>4677</v>
+      </c>
+      <c r="C64" s="5">
+        <v>16540.36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="5">
+        <v>58671</v>
+      </c>
+      <c r="C65" s="5">
+        <v>172828.96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="5">
+        <v>13652</v>
+      </c>
+      <c r="C66" s="5">
+        <v>38617.119999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1586</v>
+      </c>
+      <c r="C67" s="5">
+        <v>4633.76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="5">
+        <v>3064</v>
+      </c>
+      <c r="C68" s="5">
+        <v>8635.2999999999993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="5">
+        <v>4207</v>
+      </c>
+      <c r="C69" s="5">
+        <v>11409.849999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="5">
+        <v>4795</v>
+      </c>
+      <c r="C70" s="5">
+        <v>13938.209999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="5">
+        <v>27715</v>
+      </c>
+      <c r="C71" s="5">
+        <v>81254.09</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="5">
+        <v>10115</v>
+      </c>
+      <c r="C72" s="5">
+        <v>27038.269999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="5">
+        <v>5329</v>
+      </c>
+      <c r="C73" s="5">
+        <v>16632.900000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="5">
+        <v>8366</v>
+      </c>
+      <c r="C74" s="5">
+        <v>25008.009999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="5">
+        <v>3905</v>
+      </c>
+      <c r="C75" s="5">
+        <v>12574.909999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="5">
+        <v>17304</v>
+      </c>
+      <c r="C76" s="5">
+        <v>52957.75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="5">
+        <v>2328</v>
+      </c>
+      <c r="C77" s="5">
+        <v>6860.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="5">
+        <v>5826</v>
+      </c>
+      <c r="C78" s="5">
+        <v>17647.739999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="5">
+        <v>3789</v>
+      </c>
+      <c r="C79" s="5">
+        <v>12736.820000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="5">
+        <v>5361</v>
+      </c>
+      <c r="C80" s="5">
+        <v>15712.789999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B81" s="5">
+        <v>216738</v>
+      </c>
+      <c r="C81" s="5">
+        <v>637719.84999999986</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" s="5">
+        <v>54117</v>
+      </c>
+      <c r="C82" s="5">
+        <v>162606.44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" s="5">
+        <v>8056</v>
+      </c>
+      <c r="C83" s="5">
+        <v>24960.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="5">
+        <v>3732</v>
+      </c>
+      <c r="C84" s="5">
+        <v>10691.19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="5">
+        <v>1505</v>
+      </c>
+      <c r="C85" s="5">
+        <v>5857.0599999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B86" s="5">
+        <v>2819</v>
+      </c>
+      <c r="C86" s="5">
+        <v>8412.65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="5">
+        <v>17421</v>
+      </c>
+      <c r="C87" s="5">
+        <v>54380.630000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="5">
+        <v>6091</v>
+      </c>
+      <c r="C88" s="5">
+        <v>19667.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="5">
+        <v>2929</v>
+      </c>
+      <c r="C89" s="5">
+        <v>9482.11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="5">
+        <v>4489</v>
+      </c>
+      <c r="C90" s="5">
+        <v>14235.35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" s="5">
+        <v>3912</v>
+      </c>
+      <c r="C91" s="5">
+        <v>10995.22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="5">
+        <v>11102</v>
+      </c>
+      <c r="C92" s="5">
+        <v>32314.84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="5">
+        <v>3572</v>
+      </c>
+      <c r="C93" s="5">
+        <v>11213.49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" s="5">
+        <v>4732</v>
+      </c>
+      <c r="C94" s="5">
+        <v>13021.17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="5">
+        <v>1880</v>
+      </c>
+      <c r="C95" s="5">
+        <v>4610.1399999999994</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" s="5">
+        <v>918</v>
+      </c>
+      <c r="C96" s="5">
+        <v>3470.04</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" s="5">
+        <v>17538</v>
+      </c>
+      <c r="C97" s="5">
+        <v>50950.069999999992</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" s="5">
+        <v>5866</v>
+      </c>
+      <c r="C98" s="5">
+        <v>15763.650000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="5">
+        <v>3313</v>
+      </c>
+      <c r="C99" s="5">
+        <v>11038.24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" s="5">
+        <v>2358</v>
+      </c>
+      <c r="C100" s="5">
+        <v>6608.9600000000009</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" s="5">
+        <v>6001</v>
+      </c>
+      <c r="C101" s="5">
+        <v>17539.219999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" s="5">
+        <v>56222</v>
+      </c>
+      <c r="C102" s="5">
+        <v>167211.04000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="5">
+        <v>16238</v>
+      </c>
+      <c r="C103" s="5">
+        <v>48954.55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="5">
+        <v>5222</v>
+      </c>
+      <c r="C104" s="5">
+        <v>12878.369999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105" s="5">
+        <v>5691</v>
+      </c>
+      <c r="C105" s="5">
+        <v>17863.579999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="5">
+        <v>1157</v>
+      </c>
+      <c r="C106" s="5">
+        <v>4395.26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" s="5">
+        <v>4168</v>
+      </c>
+      <c r="C107" s="5">
+        <v>13817.34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" s="5">
+        <v>23382</v>
+      </c>
+      <c r="C108" s="5">
+        <v>69291.37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="5">
+        <v>4766</v>
+      </c>
+      <c r="C109" s="5">
+        <v>12852.79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" s="5">
+        <v>12295</v>
+      </c>
+      <c r="C110" s="5">
+        <v>37193.969999999994</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" s="5">
+        <v>3324</v>
+      </c>
+      <c r="C111" s="5">
+        <v>9470.5400000000009</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" s="5">
+        <v>2997</v>
+      </c>
+      <c r="C112" s="5">
+        <v>9774.07</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113" s="5">
+        <v>16602</v>
+      </c>
+      <c r="C113" s="5">
+        <v>48965.119999999995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" s="5">
+        <v>2396</v>
+      </c>
+      <c r="C114" s="5">
+        <v>6588.16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" s="5">
+        <v>5248</v>
+      </c>
+      <c r="C115" s="5">
+        <v>16563.730000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" s="5">
+        <v>4453</v>
+      </c>
+      <c r="C116" s="5">
+        <v>11668.51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" s="5">
+        <v>4505</v>
+      </c>
+      <c r="C117" s="5">
+        <v>14144.719999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118" s="5">
+        <v>53910</v>
+      </c>
+      <c r="C118" s="5">
+        <v>157192.37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B119" s="5">
+        <v>12090</v>
+      </c>
+      <c r="C119" s="5">
+        <v>34879.74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" s="5">
+        <v>3707</v>
+      </c>
+      <c r="C120" s="5">
+        <v>11024.109999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="5">
+        <v>4717</v>
+      </c>
+      <c r="C121" s="5">
+        <v>14052.05</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" s="5">
+        <v>2238</v>
+      </c>
+      <c r="C122" s="5">
+        <v>5535.45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" s="5">
+        <v>1428</v>
+      </c>
+      <c r="C123" s="5">
+        <v>4268.13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" s="5">
+        <v>14712</v>
+      </c>
+      <c r="C124" s="5">
+        <v>42513.75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" s="5">
+        <v>1608</v>
+      </c>
+      <c r="C125" s="5">
+        <v>4189.04</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="5">
+        <v>3412</v>
+      </c>
+      <c r="C126" s="5">
+        <v>10886.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" s="5">
+        <v>3663</v>
+      </c>
+      <c r="C127" s="5">
+        <v>10116.26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" s="5">
+        <v>6029</v>
+      </c>
+      <c r="C128" s="5">
+        <v>17321.949999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="5">
+        <v>8397</v>
+      </c>
+      <c r="C129" s="5">
+        <v>22496.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" s="5">
+        <v>5264</v>
+      </c>
+      <c r="C130" s="5">
+        <v>14808.91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B131" s="5">
+        <v>1803</v>
+      </c>
+      <c r="C131" s="5">
+        <v>4427.91</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" s="5">
+        <v>1330</v>
+      </c>
+      <c r="C132" s="5">
+        <v>3259.68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B133" s="5">
+        <v>18711</v>
+      </c>
+      <c r="C133" s="5">
+        <v>57302.380000000005</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" s="5">
+        <v>6085</v>
+      </c>
+      <c r="C134" s="5">
+        <v>19523.320000000003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B135" s="5">
+        <v>4322</v>
+      </c>
+      <c r="C135" s="5">
+        <v>12965.279999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" s="5">
+        <v>4063</v>
+      </c>
+      <c r="C136" s="5">
+        <v>11362.89</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" s="5">
+        <v>4241</v>
+      </c>
+      <c r="C137" s="5">
+        <v>13450.890000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B138" s="5">
+        <v>52489</v>
+      </c>
+      <c r="C138" s="5">
+        <v>150710</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B139" s="5">
+        <v>16142</v>
+      </c>
+      <c r="C139" s="5">
+        <v>46657.49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" s="5">
+        <v>1454</v>
+      </c>
+      <c r="C140" s="5">
+        <v>4696.16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141" s="5">
+        <v>6424</v>
+      </c>
+      <c r="C141" s="5">
+        <v>18450.16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" s="5">
+        <v>3027</v>
+      </c>
+      <c r="C142" s="5">
+        <v>10199.31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" s="5">
+        <v>5237</v>
+      </c>
+      <c r="C143" s="5">
+        <v>13311.86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144" s="5">
+        <v>24056</v>
+      </c>
+      <c r="C144" s="5">
+        <v>69391.290000000008</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" s="5">
+        <v>4515</v>
+      </c>
+      <c r="C145" s="5">
+        <v>14147.68</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146" s="5">
+        <v>6015</v>
+      </c>
+      <c r="C146" s="5">
+        <v>16593.97</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B147" s="5">
+        <v>7505</v>
+      </c>
+      <c r="C147" s="5">
+        <v>23099.35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" s="5">
+        <v>6021</v>
+      </c>
+      <c r="C148" s="5">
+        <v>15550.29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" s="5">
+        <v>12291</v>
+      </c>
+      <c r="C149" s="5">
+        <v>34661.22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" s="5">
+        <v>2585</v>
+      </c>
+      <c r="C150" s="5">
+        <v>7715.7800000000007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" s="5">
+        <v>3436</v>
+      </c>
+      <c r="C151" s="5">
+        <v>9125.6200000000008</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B152" s="5">
+        <v>2570</v>
+      </c>
+      <c r="C152" s="5">
+        <v>8665.32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" s="5">
+        <v>3700</v>
+      </c>
+      <c r="C153" s="5">
+        <v>9154.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B154" s="5">
+        <v>243228</v>
+      </c>
+      <c r="C154" s="5">
+        <v>728218.67999999993</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B155" s="5">
+        <v>62974</v>
+      </c>
+      <c r="C155" s="5">
+        <v>178853.28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B156" s="5">
+        <v>18063</v>
+      </c>
+      <c r="C156" s="5">
+        <v>53011.540000000008</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" s="5">
+        <v>6326</v>
+      </c>
+      <c r="C157" s="5">
+        <v>17483.25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B158" s="5">
+        <v>5237</v>
+      </c>
+      <c r="C158" s="5">
+        <v>15688.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B159" s="5">
+        <v>2200</v>
+      </c>
+      <c r="C159" s="5">
+        <v>5261.65</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" s="5">
+        <v>4300</v>
+      </c>
+      <c r="C160" s="5">
+        <v>14578.340000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B161" s="5">
+        <v>20698</v>
+      </c>
+      <c r="C161" s="5">
+        <v>56663.710000000006</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" s="5">
+        <v>6183</v>
+      </c>
+      <c r="C162" s="5">
+        <v>17261.350000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B163" s="5">
+        <v>3648</v>
+      </c>
+      <c r="C163" s="5">
+        <v>10197.44</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" s="5">
+        <v>4034</v>
+      </c>
+      <c r="C164" s="5">
+        <v>11723.98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" s="5">
+        <v>6833</v>
+      </c>
+      <c r="C165" s="5">
+        <v>17480.940000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B166" s="5">
+        <v>12662</v>
+      </c>
+      <c r="C166" s="5">
+        <v>38446.44</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B167" s="5">
+        <v>2809</v>
+      </c>
+      <c r="C167" s="5">
+        <v>8413.33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B168" s="5">
+        <v>3569</v>
+      </c>
+      <c r="C168" s="5">
+        <v>9872.84</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" s="5">
+        <v>1922</v>
+      </c>
+      <c r="C169" s="5">
+        <v>7268.71</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170" s="5">
+        <v>4362</v>
+      </c>
+      <c r="C170" s="5">
+        <v>12891.560000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B171" s="5">
+        <v>11551</v>
+      </c>
+      <c r="C171" s="5">
+        <v>30731.59</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B172" s="5">
+        <v>3156</v>
+      </c>
+      <c r="C172" s="5">
+        <v>8323.7999999999993</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" s="5">
+        <v>3502</v>
+      </c>
+      <c r="C173" s="5">
+        <v>9231.369999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174" s="5">
+        <v>4893</v>
+      </c>
+      <c r="C174" s="5">
+        <v>13176.420000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175" s="5">
+        <v>56518</v>
+      </c>
+      <c r="C175" s="5">
+        <v>174378.59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B176" s="5">
+        <v>14344</v>
+      </c>
+      <c r="C176" s="5">
+        <v>43596.270000000004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B177" s="5">
+        <v>1691</v>
+      </c>
+      <c r="C177" s="5">
+        <v>5797.75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B178" s="5">
+        <v>4531</v>
+      </c>
+      <c r="C178" s="5">
+        <v>13825.920000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B179" s="5">
+        <v>5696</v>
+      </c>
+      <c r="C179" s="5">
+        <v>17427.46</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B180" s="5">
+        <v>2426</v>
+      </c>
+      <c r="C180" s="5">
+        <v>6545.1399999999994</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B181" s="5">
+        <v>21369</v>
+      </c>
+      <c r="C181" s="5">
+        <v>65306.67</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B182" s="5">
+        <v>4295</v>
+      </c>
+      <c r="C182" s="5">
+        <v>10700.91</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B183" s="5">
+        <v>5830</v>
+      </c>
+      <c r="C183" s="5">
+        <v>16823.659999999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" s="5">
+        <v>5410</v>
+      </c>
+      <c r="C184" s="5">
+        <v>18174.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" s="5">
+        <v>5834</v>
+      </c>
+      <c r="C185" s="5">
+        <v>19607.900000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B186" s="5">
+        <v>20805</v>
+      </c>
+      <c r="C186" s="5">
+        <v>65475.649999999994</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B187" s="5">
+        <v>4366</v>
+      </c>
+      <c r="C187" s="5">
+        <v>13517.579999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B188" s="5">
+        <v>8682</v>
+      </c>
+      <c r="C188" s="5">
+        <v>26027.069999999996</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" s="5">
+        <v>4196</v>
+      </c>
+      <c r="C189" s="5">
+        <v>13937.8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B190" s="5">
+        <v>3561</v>
+      </c>
+      <c r="C190" s="5">
+        <v>11993.2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B191" s="5">
+        <v>60047</v>
+      </c>
+      <c r="C191" s="5">
+        <v>182813.87999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B192" s="5">
+        <v>14535</v>
+      </c>
+      <c r="C192" s="5">
+        <v>48127.740000000005</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" s="5">
+        <v>5255</v>
+      </c>
+      <c r="C193" s="5">
+        <v>15759.59</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B194" s="5">
+        <v>4317</v>
+      </c>
+      <c r="C194" s="5">
+        <v>14763.88</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" s="5">
+        <v>3734</v>
+      </c>
+      <c r="C195" s="5">
+        <v>13631.83</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" s="5">
+        <v>1229</v>
+      </c>
+      <c r="C196" s="5">
+        <v>3972.4399999999996</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B197" s="5">
+        <v>11083</v>
+      </c>
+      <c r="C197" s="5">
+        <v>32042.39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" s="5">
+        <v>2459</v>
+      </c>
+      <c r="C198" s="5">
+        <v>7811.1100000000006</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B199" s="5">
+        <v>3277</v>
+      </c>
+      <c r="C199" s="5">
+        <v>9092.92</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B200" s="5">
+        <v>3701</v>
+      </c>
+      <c r="C200" s="5">
+        <v>11087.14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201" s="5">
+        <v>1646</v>
+      </c>
+      <c r="C201" s="5">
+        <v>4051.2200000000003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B202" s="5">
+        <v>20005</v>
+      </c>
+      <c r="C202" s="5">
+        <v>60126.15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B203" s="5">
+        <v>4061</v>
+      </c>
+      <c r="C203" s="5">
+        <v>11900.19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B204" s="5">
+        <v>6268</v>
+      </c>
+      <c r="C204" s="5">
+        <v>20474.650000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B205" s="5">
+        <v>4865</v>
+      </c>
+      <c r="C205" s="5">
+        <v>14698.63</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" s="5">
+        <v>4811</v>
+      </c>
+      <c r="C206" s="5">
+        <v>13052.679999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B207" s="5">
+        <v>14424</v>
+      </c>
+      <c r="C207" s="5">
+        <v>42517.600000000006</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" s="5">
+        <v>6106</v>
+      </c>
+      <c r="C208" s="5">
+        <v>17680.490000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B209" s="5">
+        <v>4587</v>
+      </c>
+      <c r="C209" s="5">
+        <v>12284.04</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B210" s="5">
+        <v>1515</v>
+      </c>
+      <c r="C210" s="5">
+        <v>5055.55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211" s="5">
+        <v>2216</v>
+      </c>
+      <c r="C211" s="5">
+        <v>7497.52</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B212" s="5">
+        <v>63689</v>
+      </c>
+      <c r="C212" s="5">
+        <v>192172.92999999996</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B213" s="5">
+        <v>11163</v>
+      </c>
+      <c r="C213" s="5">
+        <v>32993.1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B214" s="5">
+        <v>4614</v>
+      </c>
+      <c r="C214" s="5">
+        <v>13732.83</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B215" s="5">
+        <v>3265</v>
+      </c>
+      <c r="C215" s="5">
+        <v>9216.4699999999993</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B216" s="5">
+        <v>1639</v>
+      </c>
+      <c r="C216" s="5">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B217" s="5">
+        <v>1645</v>
+      </c>
+      <c r="C217" s="5">
+        <v>5055.7999999999993</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B218" s="5">
+        <v>35797</v>
+      </c>
+      <c r="C218" s="5">
+        <v>105793.04</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" s="5">
+        <v>12124</v>
+      </c>
+      <c r="C219" s="5">
+        <v>37401.269999999997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B220" s="5">
+        <v>8989</v>
+      </c>
+      <c r="C220" s="5">
+        <v>26069.35</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B221" s="5">
+        <v>8458</v>
+      </c>
+      <c r="C221" s="5">
+        <v>22822.229999999996</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B222" s="5">
+        <v>6226</v>
+      </c>
+      <c r="C222" s="5">
+        <v>19500.189999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B223" s="5">
+        <v>16729</v>
+      </c>
+      <c r="C223" s="5">
+        <v>53386.789999999994</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B224" s="5">
+        <v>6902</v>
+      </c>
+      <c r="C224" s="5">
+        <v>21092.749999999996</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225" s="5">
+        <v>3366</v>
+      </c>
+      <c r="C225" s="5">
+        <v>11339.47</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B226" s="5">
+        <v>4172</v>
+      </c>
+      <c r="C226" s="5">
+        <v>14956.359999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B227" s="5">
+        <v>2289</v>
+      </c>
+      <c r="C227" s="5">
+        <v>5998.2099999999991</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B228" s="5">
+        <v>693127</v>
+      </c>
+      <c r="C228" s="5">
+        <v>2068334.3499999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="B13 B8 B18 B23 B29 B34 B39 B45 B50 B55 B60 B66 B71 B76 B83 B87 B92 B97 B103 B108 B113 B119 B124 B129 B133 B139 B144 B149 B156 B161 B166 B171 B176 B181 B186 B192 B197 B202 B207 B213 B218 B223">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="B8">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="B13 B8 B18 B23 B29 B34 B39 B45 B50 B55 B60 B66 B71 B76 B83 B87 B92 B97 B103 B108 B113 B119 B124 B129 B133 B139 B144 B149 B156 B161 B166 B171 B176 B181 B186 B192 B197 B202 B207 B213 B218 B223">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="B8">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="B13 B8 B18 B23 B29 B34 B39 B45 B50 B55 B60 B66 B71 B76 B83 B87 B92 B97 B103 B108 B113 B119 B124 B129 B133 B139 B144 B149 B156 B161 B166 B171 B176 B181 B186 B192 B197 B202 B207 B213 B218 B223">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{242CEBD9-B707-4544-8B78-7CE1D8562588}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{242CEBD9-B707-4544-8B78-7CE1D8562588}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:J284"/>
+  <sheetViews>
+    <sheetView topLeftCell="A247" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2007</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
@@ -58246,7 +60599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:J228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -60754,7 +63107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:J155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -62460,7 +64813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -63352,7 +65705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:J228"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -65870,7 +68223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:J228"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -68558,14 +70911,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF8E4BBD310ADB419B3C5F1ACE4D113D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63e1bd94a874076348984a0131457edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1607db4-bd3f-4f82-a312-bf7e283d0a6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c9989741aedae2f07a76d9f40ef2a18" ns2:_="">
     <xsd:import namespace="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
@@ -68625,7 +70970,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -68634,22 +70979,15 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75D95DFA-D91A-4256-95D8-6375754A05FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C7265D-E9BE-4838-933F-0B33C40B7B79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68666,10 +71004,25 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C00A41B8-807A-406B-9D36-DB36046F21DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75D95DFA-D91A-4256-95D8-6375754A05FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>